--- a/backend/src/excel_handler/files/ALUA.xlsx
+++ b/backend/src/excel_handler/files/ALUA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:B51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>16-12-2022</t>
+          <t>23-12-2022</t>
         </is>
       </c>
     </row>
@@ -447,7 +447,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>12213095.02</v>
+        <v>23178156.6</v>
       </c>
     </row>
     <row r="3">
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>436181.96</v>
+        <v>482878.26</v>
       </c>
     </row>
     <row r="4">
@@ -467,7 +467,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1011855.06</v>
+        <v>963093.05</v>
       </c>
     </row>
     <row r="5">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>287209.08</v>
+        <v>287297.17</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1084410.59</v>
+        <v>1084308.54</v>
       </c>
     </row>
     <row r="7">
@@ -497,7 +497,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>745109.92</v>
+        <v>720490.78</v>
       </c>
     </row>
     <row r="8">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1806310.71</v>
+        <v>1806366.8</v>
       </c>
     </row>
     <row r="9">
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>759804.26</v>
+        <v>759585.85</v>
       </c>
     </row>
     <row r="10">
@@ -527,7 +527,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>671606.0699999999</v>
+        <v>664282.75</v>
       </c>
     </row>
     <row r="11">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>214967.87</v>
+        <v>215265.2</v>
       </c>
     </row>
     <row r="12">
@@ -547,7 +547,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>360310.62</v>
+        <v>345437.62</v>
       </c>
     </row>
     <row r="13">
@@ -557,7 +557,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>614553.3100000001</v>
+        <v>599176.25</v>
       </c>
     </row>
     <row r="14">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>319928.44</v>
+        <v>320236.97</v>
       </c>
     </row>
     <row r="15">
@@ -577,7 +577,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1059721.84</v>
+        <v>1061098.88</v>
       </c>
     </row>
     <row r="16">
@@ -587,7 +587,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>229920.95</v>
+        <v>229691.95</v>
       </c>
     </row>
     <row r="17">
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>565792.27</v>
+        <v>522391.22</v>
       </c>
     </row>
     <row r="18">
@@ -607,7 +607,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>601466.6800000001</v>
+        <v>563920.4399999999</v>
       </c>
     </row>
     <row r="19">
@@ -617,7 +617,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>221196.59</v>
+        <v>221013.54</v>
       </c>
     </row>
     <row r="20">
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>398847.74</v>
+        <v>398977.85</v>
       </c>
     </row>
     <row r="21">
@@ -637,7 +637,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>114553.32</v>
+        <v>114538.77</v>
       </c>
     </row>
     <row r="22">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>101441.35</v>
+        <v>108847.98</v>
       </c>
     </row>
     <row r="23">
@@ -657,7 +657,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>212831.38</v>
+        <v>212722.34</v>
       </c>
     </row>
     <row r="24">
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>182626.42</v>
+        <v>157724.8</v>
       </c>
     </row>
     <row r="25">
@@ -677,7 +677,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>225987.18</v>
+        <v>226178.16</v>
       </c>
     </row>
     <row r="26">
@@ -687,7 +687,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>105448.27</v>
+        <v>105432.65</v>
       </c>
     </row>
     <row r="27">
@@ -697,7 +697,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>35556.03</v>
+        <v>35581.13</v>
       </c>
     </row>
     <row r="28">
@@ -707,7 +707,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>96099.53</v>
+        <v>95867.88</v>
       </c>
     </row>
     <row r="29">
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>69653.36</v>
+        <v>69602.14</v>
       </c>
     </row>
     <row r="30">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>16462.83</v>
+        <v>16462.22</v>
       </c>
     </row>
     <row r="31">
@@ -737,7 +737,207 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>99423.35000000001</v>
+        <v>99420.82000000001</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>CMA acciones</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>196602.9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>Delta acciones</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>57301.89</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>Delta inter</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>15995.92</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>Delta Latam</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>29738.21</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>Delta Select</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>478552.39</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>Lombardi</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>116590.73</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>MAF</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>248850.34</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>Superfondo</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>405541.05</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>Alpha planeam equil</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>21598.45</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>Alpha renta balan global</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>945338.89</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>Toronto trust Argy</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>189569.88</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>Arpenta ex Mercosur</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>13427.74</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>Supergestion</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>518506.37</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>Arpenta acciones</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>8193.4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>Compass Crecim</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>2079604.16</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>Goal acciones plus</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>24477.43</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>Ieb Value</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>16462.22</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>Schroeder RV</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>2493958.89</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>Supefondo RV</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>1510809.61</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>Galileo</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>1802022.38</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/ALUA.xlsx
+++ b/backend/src/excel_handler/files/ALUA.xlsx
@@ -813,7 +813,7 @@
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>Superfondo</t>
+          <t xml:space="preserve">Superfondo </t>
         </is>
       </c>
       <c r="B39" t="n">

--- a/backend/src/excel_handler/files/ALUA.xlsx
+++ b/backend/src/excel_handler/files/ALUA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B51"/>
+  <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,508 +436,661 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>23-12-2022</t>
+          <t>30-12-2022</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>06-01-2023</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>1810 Renta variable</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>23178156.6</v>
+        <v>226189.73</v>
+      </c>
+      <c r="C2" t="n">
+        <v>226089.51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>1822 Raices Valores Negociables</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>482878.26</v>
+        <v>884895.78</v>
+      </c>
+      <c r="C3" t="n">
+        <v>879586.27</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>1822 Raices Valores Negociables</t>
+          <t>Adcap</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>963093.05</v>
+        <v>105568.49</v>
+      </c>
+      <c r="C4" t="n">
+        <v>105473.76</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Alpha Acciones</t>
+          <t>Allaria Acciones</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>287297.17</v>
+        <v>212542.55</v>
+      </c>
+      <c r="C5" t="n">
+        <v>235786.46</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mega</t>
+          <t>Alpha Acciones</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1084308.54</v>
+        <v>287237.99</v>
+      </c>
+      <c r="C6" t="n">
+        <v>286942.29</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Balanz</t>
+          <t>Alpha Mega</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>720490.78</v>
+        <v>1000880.85</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1001323.34</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Acciones Argentina</t>
+          <t>Alpha planeam equil</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1806366.8</v>
+        <v>21652.15</v>
+      </c>
+      <c r="C8" t="n">
+        <v>21616.12</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Renta Variable</t>
+          <t>Alpha renta balan global</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>759585.85</v>
+        <v>944034.59</v>
+      </c>
+      <c r="C9" t="n">
+        <v>944897.53</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>Argenfunds</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>664282.75</v>
+        <v>35559.82</v>
+      </c>
+      <c r="C10" t="n">
+        <v>35514.84</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>Arpenta acciones</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>215265.2</v>
+        <v>8193.950000000001</v>
+      </c>
+      <c r="C11" t="n">
+        <v>8193.27</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>Arpenta ex Mercosur</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>345437.62</v>
+        <v>13389.18</v>
+      </c>
+      <c r="C12" t="n">
+        <v>13408.81</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Lideres</t>
+          <t>Balanz</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>599176.25</v>
+        <v>721173.51</v>
+      </c>
+      <c r="C13" t="n">
+        <v>699372.66</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Quinquela Acciones</t>
+          <t>CMA acciones</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>320236.97</v>
+        <v>196668.34</v>
+      </c>
+      <c r="C14" t="n">
+        <v>196743.44</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>SBS Acciones Argentina</t>
+          <t>Compass Crecim</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1061098.88</v>
+        <v>2062380.18</v>
+      </c>
+      <c r="C15" t="n">
+        <v>2044193.98</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Rofex 20 Renta Variable</t>
+          <t>Consultatio Acciones Argentina</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>229691.95</v>
+        <v>1807049.63</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1806775.34</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>FBA Acciones Argentinas</t>
+          <t>Consultatio Renta Variable</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>522391.22</v>
+        <v>759848.4300000001</v>
+      </c>
+      <c r="C17" t="n">
+        <v>759610.45</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>FBA Calificado</t>
+          <t>Delta Latam</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>563920.4399999999</v>
+        <v>29734.77</v>
+      </c>
+      <c r="C18" t="n">
+        <v>29750.4</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Pellegrini Acciones</t>
+          <t>Delta Select</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>221013.54</v>
+        <v>479946.4</v>
+      </c>
+      <c r="C19" t="n">
+        <v>477784.31</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Pionero Acciones</t>
+          <t>Delta acciones</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>398977.85</v>
+        <v>57477.74</v>
+      </c>
+      <c r="C20" t="n">
+        <v>57514.45</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Toronto Trust Multimercado</t>
+          <t>Delta inter</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>114538.77</v>
+        <v>16008.28</v>
+      </c>
+      <c r="C21" t="n">
+        <v>15998.35</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>IAM Renta Variable</t>
+          <t>FBA Acciones Argentinas</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>108847.98</v>
+        <v>554731.63</v>
+      </c>
+      <c r="C22" t="n">
+        <v>611641.45</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Allaria Acciones</t>
+          <t>FBA Calificado</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>212722.34</v>
+        <v>563719.5600000001</v>
+      </c>
+      <c r="C23" t="n">
+        <v>601642.11</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Premier Renta Variable</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>157724.8</v>
+        <v>602931.25</v>
+      </c>
+      <c r="C24" t="n">
+        <v>613831.85</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>1810 Renta variable</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>226178.16</v>
+        <v>214906.65</v>
+      </c>
+      <c r="C25" t="n">
+        <v>215635.15</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Adcap</t>
+          <t>Gainvest</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>105432.65</v>
+        <v>96211.60000000001</v>
+      </c>
+      <c r="C26" t="n">
+        <v>95932.97</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Argenfunds</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>35581.13</v>
+          <t>Galileo</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="n">
+        <v>1943145.83</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Gainvest</t>
+          <t>Goal</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>95867.88</v>
+        <v>69671.78</v>
+      </c>
+      <c r="C28" t="n">
+        <v>69522.91</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Goal</t>
+          <t>Goal acciones plus</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>69602.14</v>
+        <v>24497.03</v>
+      </c>
+      <c r="C29" t="n">
+        <v>24510.69</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>IEB</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>16462.22</v>
+        <v>330894.84</v>
+      </c>
+      <c r="C30" t="n">
+        <v>330422.7</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Megainver</t>
+          <t>HF Acciones Lideres</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>99420.82000000001</v>
+        <v>600096.21</v>
+      </c>
+      <c r="C31" t="n">
+        <v>584953.8</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>CMA acciones</t>
+          <t>IAM Renta Variable</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>196602.9</v>
+        <v>114913.55</v>
+      </c>
+      <c r="C32" t="n">
+        <v>114976.16</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Delta acciones</t>
+          <t>IEB</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>57301.89</v>
+        <v>16460.65</v>
+      </c>
+      <c r="C33" t="n">
+        <v>22658.35</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Delta inter</t>
+          <t>Ieb Value</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>15995.92</v>
+        <v>16460.65</v>
+      </c>
+      <c r="C34" t="n">
+        <v>22658.35</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Delta Latam</t>
+          <t>Lombardi</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>29738.21</v>
+        <v>105583.26</v>
+      </c>
+      <c r="C35" t="n">
+        <v>105680.69</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Delta Select</t>
+          <t>MAF</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>478552.39</v>
+        <v>248795.68</v>
+      </c>
+      <c r="C36" t="n">
+        <v>248774.94</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Lombardi</t>
+          <t>Megainver</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>116590.73</v>
+        <v>99344.25</v>
+      </c>
+      <c r="C37" t="n">
+        <v>99369.00999999999</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>MAF</t>
+          <t>Pellegrini Acciones</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>248850.34</v>
+        <v>220951.45</v>
+      </c>
+      <c r="C38" t="n">
+        <v>220924.8</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Superfondo </t>
+          <t>Pionero Acciones</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>405541.05</v>
+        <v>399117.67</v>
+      </c>
+      <c r="C39" t="n">
+        <v>399231.85</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>Alpha planeam equil</t>
+          <t>Premier Renta Variable</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>21598.45</v>
+        <v>142617.62</v>
+      </c>
+      <c r="C40" t="n">
+        <v>142507.79</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>Alpha renta balan global</t>
+          <t>Quinquela Acciones</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>945338.89</v>
+        <v>319973.88</v>
+      </c>
+      <c r="C41" t="n">
+        <v>320189.3</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>Toronto trust Argy</t>
+          <t>Rofex 20 Renta Variable</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>189569.88</v>
+        <v>229723.73</v>
+      </c>
+      <c r="C42" t="n">
+        <v>229972.21</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>Arpenta ex Mercosur</t>
+          <t>SBS Acciones Argentina</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>13427.74</v>
+        <v>1061097.51</v>
+      </c>
+      <c r="C43" t="n">
+        <v>1061365.07</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>Supergestion</t>
+          <t>Schroeder RV</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>518506.37</v>
+        <v>2505305.54</v>
+      </c>
+      <c r="C44" t="n">
+        <v>2507588.44</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>Arpenta acciones</t>
+          <t>Supefondo RV</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>8193.4</v>
+        <v>1511763.21</v>
+      </c>
+      <c r="C45" t="n">
+        <v>1507953.08</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>Compass Crecim</t>
+          <t xml:space="preserve">Superfondo </t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2079604.16</v>
+        <v>156011.09</v>
+      </c>
+      <c r="C46" t="n">
+        <v>154579.37</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Goal acciones plus</t>
+          <t>Supergestion</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>24477.43</v>
+        <v>319502.05</v>
+      </c>
+      <c r="C47" t="n">
+        <v>319272.67</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Ieb Value</t>
+          <t>Toronto Trust Multimercado</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>16462.22</v>
+        <v>114479.06</v>
+      </c>
+      <c r="C48" t="n">
+        <v>114607.64</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Schroeder RV</t>
+          <t>Toronto trust Argy</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>2493958.89</v>
+        <v>189479.73</v>
+      </c>
+      <c r="C49" t="n">
+        <v>189731.39</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Supefondo RV</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1510809.61</v>
+        <v>440418.58</v>
+      </c>
+      <c r="C50" t="n">
+        <v>473330.34</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>Galileo</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>1802022.38</v>
+        <v>20699673.49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>22719856.15</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/ALUA.xlsx
+++ b/backend/src/excel_handler/files/ALUA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C51"/>
+  <dimension ref="A1:B52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,11 +436,6 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>30-12-2022</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
           <t>06-01-2023</t>
         </is>
       </c>
@@ -448,649 +443,511 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>1810 Renta variable</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>226189.73</v>
-      </c>
-      <c r="C2" t="n">
-        <v>226089.51</v>
+        <v>24052322.06</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>1822 Raices Valores Negociables</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>884895.78</v>
-      </c>
-      <c r="C3" t="n">
-        <v>879586.27</v>
+        <v>490863.72</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Adcap</t>
+          <t>1810 Renta variable</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>105568.49</v>
-      </c>
-      <c r="C4" t="n">
-        <v>105473.76</v>
+        <v>226089.51</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Allaria Acciones</t>
+          <t>1822 Raices Valores Negociables</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>212542.55</v>
-      </c>
-      <c r="C5" t="n">
-        <v>235786.46</v>
+        <v>879586.27</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Alpha Acciones</t>
+          <t>Adcap IOL Acciones Argentina</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>287237.99</v>
-      </c>
-      <c r="C6" t="n">
-        <v>286942.29</v>
+        <v>105473.76</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mega</t>
+          <t>Allaria Acciones</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1000880.85</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1001323.34</v>
+        <v>235786.46</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Alpha planeam equil</t>
+          <t>Alpha Acciones</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>21652.15</v>
-      </c>
-      <c r="C8" t="n">
-        <v>21616.12</v>
+        <v>286942.29</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Alpha renta balan global</t>
+          <t>Alpha Mega</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>944034.59</v>
-      </c>
-      <c r="C9" t="n">
-        <v>944897.53</v>
+        <v>1001323.34</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Argenfunds</t>
+          <t>Alpha Mercosur</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>35559.82</v>
-      </c>
-      <c r="C10" t="n">
-        <v>35514.84</v>
+        <v>598915.4399999999</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Arpenta acciones</t>
+          <t>Alpha Recursos Naturales</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>8193.950000000001</v>
-      </c>
-      <c r="C11" t="n">
-        <v>8193.27</v>
+        <v>756208.8199999999</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Arpenta ex Mercosur</t>
+          <t>Alpha planeam equil</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>13389.18</v>
-      </c>
-      <c r="C12" t="n">
-        <v>13408.81</v>
+        <v>21616.12</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Balanz</t>
+          <t>Alpha renta balan global</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>721173.51</v>
-      </c>
-      <c r="C13" t="n">
-        <v>699372.66</v>
+        <v>944897.53</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>CMA acciones</t>
+          <t>Argenfunds</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>196668.34</v>
-      </c>
-      <c r="C14" t="n">
-        <v>196743.44</v>
+        <v>35514.84</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Compass Crecim</t>
+          <t>Arpenta acciones</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2062380.18</v>
-      </c>
-      <c r="C15" t="n">
-        <v>2044193.98</v>
+        <v>8193.27</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Acciones Argentina</t>
+          <t>Arpenta ex Mercosur</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1807049.63</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1806775.34</v>
+        <v>13408.81</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Renta Variable</t>
+          <t>Balanz</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>759848.4300000001</v>
-      </c>
-      <c r="C17" t="n">
-        <v>759610.45</v>
+        <v>699372.66</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Delta Latam</t>
+          <t>CMA acciones</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>29734.77</v>
-      </c>
-      <c r="C18" t="n">
-        <v>29750.4</v>
+        <v>196743.44</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Delta Select</t>
+          <t>Compass Crecimiento</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>479946.4</v>
-      </c>
-      <c r="C19" t="n">
-        <v>477784.31</v>
+        <v>2044193.98</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Delta acciones</t>
+          <t>Consultatio Acciones Argentina</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>57477.74</v>
-      </c>
-      <c r="C20" t="n">
-        <v>57514.45</v>
+        <v>1806775.34</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Delta inter</t>
+          <t>Consultatio Renta Variable</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>16008.28</v>
-      </c>
-      <c r="C21" t="n">
-        <v>15998.35</v>
+        <v>759610.45</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>FBA Acciones Argentinas</t>
+          <t>Delta Acciones</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>554731.63</v>
-      </c>
-      <c r="C22" t="n">
-        <v>611641.45</v>
+        <v>57514.45</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>FBA Calificado</t>
+          <t>Delta Internacional</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>563719.5600000001</v>
-      </c>
-      <c r="C23" t="n">
-        <v>601642.11</v>
+        <v>15998.35</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>Delta Latinoamerica</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>602931.25</v>
-      </c>
-      <c r="C24" t="n">
-        <v>613831.85</v>
+        <v>29750.4</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>Delta Select</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>214906.65</v>
-      </c>
-      <c r="C25" t="n">
-        <v>215635.15</v>
+        <v>477784.31</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Gainvest</t>
+          <t>FBA Acciones Argentinas</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>96211.60000000001</v>
-      </c>
-      <c r="C26" t="n">
-        <v>95932.97</v>
+        <v>611641.45</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Galileo</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr"/>
-      <c r="C27" t="n">
-        <v>1943145.83</v>
+          <t>FBA Calificado</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>601642.11</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Goal</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>69671.78</v>
-      </c>
-      <c r="C28" t="n">
-        <v>69522.91</v>
+        <v>613831.85</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Goal acciones plus</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>24497.03</v>
-      </c>
-      <c r="C29" t="n">
-        <v>24510.69</v>
+        <v>215635.15</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>Gainvest Renta Variable</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>330894.84</v>
-      </c>
-      <c r="C30" t="n">
-        <v>330422.7</v>
+        <v>95932.97</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Lideres</t>
+          <t>Galileo Acciones</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>600096.21</v>
-      </c>
-      <c r="C31" t="n">
-        <v>584953.8</v>
+        <v>1943145.83</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>IAM Renta Variable</t>
+          <t>Goal Acciones Argentinas</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>114913.55</v>
-      </c>
-      <c r="C32" t="n">
-        <v>114976.16</v>
+        <v>69522.91</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>IEB</t>
+          <t>Goal acciones plus</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>16460.65</v>
-      </c>
-      <c r="C33" t="n">
-        <v>22658.35</v>
+        <v>24510.69</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Ieb Value</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>16460.65</v>
-      </c>
-      <c r="C34" t="n">
-        <v>22658.35</v>
+        <v>330422.7</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Lombardi</t>
+          <t>HF Acciones Lideres</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>105583.26</v>
-      </c>
-      <c r="C35" t="n">
-        <v>105680.69</v>
+        <v>584953.8</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>MAF</t>
+          <t>IAM Renta Variable</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>248795.68</v>
-      </c>
-      <c r="C36" t="n">
-        <v>248774.94</v>
+        <v>114976.16</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Megainver</t>
+          <t>IEB Value</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>99344.25</v>
-      </c>
-      <c r="C37" t="n">
-        <v>99369.00999999999</v>
+        <v>22658.35</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>Pellegrini Acciones</t>
+          <t>Lombardi</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>220951.45</v>
-      </c>
-      <c r="C38" t="n">
-        <v>220924.8</v>
+        <v>105680.69</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>Pionero Acciones</t>
+          <t>MAF</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>399117.67</v>
-      </c>
-      <c r="C39" t="n">
-        <v>399231.85</v>
+        <v>248774.94</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>Premier Renta Variable</t>
+          <t>Megainver</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>142617.62</v>
-      </c>
-      <c r="C40" t="n">
-        <v>142507.79</v>
+        <v>99369.00999999999</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>Quinquela Acciones</t>
+          <t>Pellegrini Acciones</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>319973.88</v>
-      </c>
-      <c r="C41" t="n">
-        <v>320189.3</v>
+        <v>220924.8</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>Rofex 20 Renta Variable</t>
+          <t>Pionero Acciones</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>229723.73</v>
-      </c>
-      <c r="C42" t="n">
-        <v>229972.21</v>
+        <v>399231.85</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>SBS Acciones Argentina</t>
+          <t>Premier Renta Variable</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1061097.51</v>
-      </c>
-      <c r="C43" t="n">
-        <v>1061365.07</v>
+        <v>142507.79</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>Schroeder RV</t>
+          <t>Quinquela Acciones</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2505305.54</v>
-      </c>
-      <c r="C44" t="n">
-        <v>2507588.44</v>
+        <v>320189.3</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>Supefondo RV</t>
+          <t>Rofex 20 Renta Variable</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1511763.21</v>
-      </c>
-      <c r="C45" t="n">
-        <v>1507953.08</v>
+        <v>229972.21</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Superfondo </t>
+          <t>SBS Acciones Argentina</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>156011.09</v>
-      </c>
-      <c r="C46" t="n">
-        <v>154579.37</v>
+        <v>1061365.07</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Supergestion</t>
+          <t>Schroeder RV</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>319502.05</v>
-      </c>
-      <c r="C47" t="n">
-        <v>319272.67</v>
+        <v>2507588.44</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Toronto Trust Multimercado</t>
+          <t>Supefondo RV</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>114479.06</v>
-      </c>
-      <c r="C48" t="n">
-        <v>114607.64</v>
+        <v>1507953.08</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Toronto trust Argy</t>
+          <t xml:space="preserve">Superfondo </t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>189479.73</v>
-      </c>
-      <c r="C49" t="n">
-        <v>189731.39</v>
+        <v>154579.37</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>Supergestion</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>440418.58</v>
-      </c>
-      <c r="C50" t="n">
-        <v>473330.34</v>
+        <v>319272.67</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>Toronto Trust Multimercado</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>20699673.49</v>
-      </c>
-      <c r="C51" t="n">
-        <v>22719856.15</v>
+        <v>114607.64</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>Toronto trust Argy</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>189731.39</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/ALUA.xlsx
+++ b/backend/src/excel_handler/files/ALUA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B52"/>
+  <dimension ref="A1:C52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,515 +439,653 @@
           <t>06-01-2023</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>13-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>1810 Renta variable</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>24052322.06</v>
+        <v>226089.51</v>
+      </c>
+      <c r="C2" t="n">
+        <v>345962.63</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>1822 Raices Valores Negociables</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>490863.72</v>
+        <v>879586.27</v>
+      </c>
+      <c r="C3" t="n">
+        <v>879676.12</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>1810 Renta variable</t>
+          <t>Adcap IOL Acciones Argentina</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>226089.51</v>
+        <v>105473.76</v>
+      </c>
+      <c r="C4" t="n">
+        <v>105611.31</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>1822 Raices Valores Negociables</t>
+          <t>Allaria Acciones</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>879586.27</v>
+        <v>235786.46</v>
+      </c>
+      <c r="C5" t="n">
+        <v>235983.86</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Adcap IOL Acciones Argentina</t>
+          <t>Alpha Acciones</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>105473.76</v>
+        <v>286942.29</v>
+      </c>
+      <c r="C6" t="n">
+        <v>287401.77</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Allaria Acciones</t>
+          <t>Alpha Mega</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>235786.46</v>
+        <v>1001323.34</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1001834.36</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Alpha Acciones</t>
+          <t>Alpha Mercosur</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>286942.29</v>
+        <v>598915.4399999999</v>
+      </c>
+      <c r="C8" t="n">
+        <v>598348.37</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mega</t>
+          <t>Alpha Recursos Naturales</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1001323.34</v>
+        <v>756208.8199999999</v>
+      </c>
+      <c r="C9" t="n">
+        <v>878817.86</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mercosur</t>
+          <t>Alpha planeam equil</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>598915.4399999999</v>
+        <v>21616.12</v>
+      </c>
+      <c r="C10" t="n">
+        <v>11558.68</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Alpha Recursos Naturales</t>
+          <t>Alpha renta balan global</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>756208.8199999999</v>
+        <v>944897.53</v>
+      </c>
+      <c r="C11" t="n">
+        <v>941568.24</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Alpha planeam equil</t>
+          <t>Argenfunds</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>21616.12</v>
+        <v>35514.84</v>
+      </c>
+      <c r="C12" t="n">
+        <v>35552.2</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Alpha renta balan global</t>
+          <t>Arpenta acciones</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>944897.53</v>
+        <v>8193.27</v>
+      </c>
+      <c r="C13" t="n">
+        <v>8200.26</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Argenfunds</t>
+          <t>Arpenta ex Mercosur</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>35514.84</v>
+        <v>13408.81</v>
+      </c>
+      <c r="C14" t="n">
+        <v>13415.14</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Arpenta acciones</t>
+          <t>Balanz</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>8193.27</v>
+        <v>699372.66</v>
+      </c>
+      <c r="C15" t="n">
+        <v>700664.96</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Arpenta ex Mercosur</t>
+          <t>CMA acciones</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>13408.81</v>
+        <v>196743.44</v>
+      </c>
+      <c r="C16" t="n">
+        <v>196842.63</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Balanz</t>
+          <t>Compass Crecimiento</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>699372.66</v>
+        <v>2044193.98</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2035251.4</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>CMA acciones</t>
+          <t>Consultatio Acciones Argentina</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>196743.44</v>
-      </c>
+        <v>1806775.34</v>
+      </c>
+      <c r="C18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Compass Crecimiento</t>
+          <t>Consultatio Renta Variable</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2044193.98</v>
-      </c>
+        <v>759610.45</v>
+      </c>
+      <c r="C19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Acciones Argentina</t>
+          <t>Delta Acciones</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1806775.34</v>
-      </c>
+        <v>57514.45</v>
+      </c>
+      <c r="C20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Renta Variable</t>
+          <t>Delta Internacional</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>759610.45</v>
-      </c>
+        <v>15998.35</v>
+      </c>
+      <c r="C21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Delta Acciones</t>
+          <t>Delta Latinoamerica</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>57514.45</v>
-      </c>
+        <v>29750.4</v>
+      </c>
+      <c r="C22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Delta Internacional</t>
+          <t>Delta Select</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>15998.35</v>
-      </c>
+        <v>477784.31</v>
+      </c>
+      <c r="C23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Delta Latinoamerica</t>
+          <t>FBA Acciones Argentinas</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>29750.4</v>
-      </c>
+        <v>611641.45</v>
+      </c>
+      <c r="C24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Delta Select</t>
+          <t>FBA Calificado</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>477784.31</v>
-      </c>
+        <v>601642.11</v>
+      </c>
+      <c r="C25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>FBA Acciones Argentinas</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>611641.45</v>
-      </c>
+        <v>613831.85</v>
+      </c>
+      <c r="C26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>FBA Calificado</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>601642.11</v>
+        <v>215635.15</v>
+      </c>
+      <c r="C27" t="n">
+        <v>458092.97</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>Gainvest Renta Variable</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>613831.85</v>
+        <v>95932.97</v>
+      </c>
+      <c r="C28" t="n">
+        <v>95762.06</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>Galileo Acciones</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>215635.15</v>
+        <v>1943145.83</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1942133.3</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Gainvest Renta Variable</t>
+          <t>Goal Acciones Argentinas</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>95932.97</v>
+        <v>69522.91</v>
+      </c>
+      <c r="C30" t="n">
+        <v>69504.27</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Galileo Acciones</t>
+          <t>Goal acciones plus</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1943145.83</v>
+        <v>24510.69</v>
+      </c>
+      <c r="C31" t="n">
+        <v>24517.51</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Goal Acciones Argentinas</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>69522.91</v>
+        <v>330422.7</v>
+      </c>
+      <c r="C32" t="n">
+        <v>330584.64</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Goal acciones plus</t>
+          <t>HF Acciones Lideres</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>24510.69</v>
+        <v>584953.8</v>
+      </c>
+      <c r="C33" t="n">
+        <v>563917.42</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>IAM Renta Variable</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>330422.7</v>
+        <v>114976.16</v>
+      </c>
+      <c r="C34" t="n">
+        <v>120265.95</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Lideres</t>
+          <t>IEB Value</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>584953.8</v>
+        <v>22658.35</v>
+      </c>
+      <c r="C35" t="n">
+        <v>22642.85</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>IAM Renta Variable</t>
+          <t>Lombardi</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>114976.16</v>
+        <v>105680.69</v>
+      </c>
+      <c r="C36" t="n">
+        <v>105793.94</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>IEB Value</t>
+          <t>MAF</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>22658.35</v>
+        <v>248774.94</v>
+      </c>
+      <c r="C37" t="n">
+        <v>248946.29</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>Lombardi</t>
+          <t>Megainver</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>105680.69</v>
+        <v>99369.00999999999</v>
+      </c>
+      <c r="C38" t="n">
+        <v>99476.06</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>MAF</t>
+          <t>Pellegrini Acciones</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>248774.94</v>
-      </c>
+        <v>220924.8</v>
+      </c>
+      <c r="C39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>Megainver</t>
+          <t>Pionero Acciones</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>99369.00999999999</v>
+        <v>399231.85</v>
+      </c>
+      <c r="C40" t="n">
+        <v>398675.83</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>Pellegrini Acciones</t>
+          <t>Premier Renta Variable</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>220924.8</v>
+        <v>142507.79</v>
+      </c>
+      <c r="C41" t="n">
+        <v>142655.19</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>Pionero Acciones</t>
+          <t>Quinquela Acciones</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>399231.85</v>
+        <v>320189.3</v>
+      </c>
+      <c r="C42" t="n">
+        <v>319994.27</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>Premier Renta Variable</t>
+          <t>Rofex 20 Renta Variable</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>142507.79</v>
+        <v>229972.21</v>
+      </c>
+      <c r="C43" t="n">
+        <v>229555.44</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>Quinquela Acciones</t>
+          <t>SBS Acciones Argentina</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>320189.3</v>
+        <v>1061365.07</v>
+      </c>
+      <c r="C44" t="n">
+        <v>1061127.24</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>Rofex 20 Renta Variable</t>
+          <t>Schroeder RV</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>229972.21</v>
+        <v>2507588.44</v>
+      </c>
+      <c r="C45" t="n">
+        <v>2506691.17</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>SBS Acciones Argentina</t>
+          <t>Supefondo RV</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1061365.07</v>
+        <v>1507953.08</v>
+      </c>
+      <c r="C46" t="n">
+        <v>1513462.28</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Schroeder RV</t>
+          <t xml:space="preserve">Superfondo </t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>2507588.44</v>
+        <v>154579.37</v>
+      </c>
+      <c r="C47" t="n">
+        <v>154269.06</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Supefondo RV</t>
+          <t>Supergestion</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>1507953.08</v>
+        <v>319272.67</v>
+      </c>
+      <c r="C48" t="n">
+        <v>320424.99</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Superfondo </t>
+          <t>Toronto Trust Multimercado</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>154579.37</v>
+        <v>114607.64</v>
+      </c>
+      <c r="C49" t="n">
+        <v>114605.83</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Supergestion</t>
+          <t>Toronto trust Argy</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>319272.67</v>
+        <v>189731.39</v>
+      </c>
+      <c r="C50" t="n">
+        <v>189512.06</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>Toronto Trust Multimercado</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>114607.64</v>
+        <v>490863.72</v>
+      </c>
+      <c r="C51" t="n">
+        <v>495110.27</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>Toronto trust Argy</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>189731.39</v>
+        <v>24052322.06</v>
+      </c>
+      <c r="C52" t="n">
+        <v>19309300.41</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/ALUA.xlsx
+++ b/backend/src/excel_handler/files/ALUA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C52"/>
+  <dimension ref="A1:D52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,6 +444,11 @@
           <t>13-01-2023</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>20-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -457,6 +462,9 @@
       <c r="C2" t="n">
         <v>345962.63</v>
       </c>
+      <c r="D2" t="n">
+        <v>437008.75</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -470,6 +478,9 @@
       <c r="C3" t="n">
         <v>879676.12</v>
       </c>
+      <c r="D3" t="n">
+        <v>922500.4399999999</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -483,6 +494,9 @@
       <c r="C4" t="n">
         <v>105611.31</v>
       </c>
+      <c r="D4" t="n">
+        <v>105323.75</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -496,6 +510,9 @@
       <c r="C5" t="n">
         <v>235983.86</v>
       </c>
+      <c r="D5" t="n">
+        <v>235757.55</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -509,6 +526,9 @@
       <c r="C6" t="n">
         <v>287401.77</v>
       </c>
+      <c r="D6" t="n">
+        <v>331696.65</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -522,6 +542,9 @@
       <c r="C7" t="n">
         <v>1001834.36</v>
       </c>
+      <c r="D7" t="n">
+        <v>1002487.38</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -535,6 +558,9 @@
       <c r="C8" t="n">
         <v>598348.37</v>
       </c>
+      <c r="D8" t="n">
+        <v>598832.55</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -548,6 +574,9 @@
       <c r="C9" t="n">
         <v>878817.86</v>
       </c>
+      <c r="D9" t="n">
+        <v>972815.3100000001</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -561,6 +590,9 @@
       <c r="C10" t="n">
         <v>11558.68</v>
       </c>
+      <c r="D10" t="n">
+        <v>11612.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -574,6 +606,9 @@
       <c r="C11" t="n">
         <v>941568.24</v>
       </c>
+      <c r="D11" t="n">
+        <v>942604.53</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -587,6 +622,9 @@
       <c r="C12" t="n">
         <v>35552.2</v>
       </c>
+      <c r="D12" t="n">
+        <v>35547.39</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -600,6 +638,9 @@
       <c r="C13" t="n">
         <v>8200.26</v>
       </c>
+      <c r="D13" t="n">
+        <v>8195.85</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -613,6 +654,9 @@
       <c r="C14" t="n">
         <v>13415.14</v>
       </c>
+      <c r="D14" t="n">
+        <v>13379.28</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -626,6 +670,9 @@
       <c r="C15" t="n">
         <v>700664.96</v>
       </c>
+      <c r="D15" t="n">
+        <v>700581.14</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -639,6 +686,9 @@
       <c r="C16" t="n">
         <v>196842.63</v>
       </c>
+      <c r="D16" t="n">
+        <v>196577.99</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -652,6 +702,9 @@
       <c r="C17" t="n">
         <v>2035251.4</v>
       </c>
+      <c r="D17" t="n">
+        <v>2024747.26</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -663,6 +716,9 @@
         <v>1806775.34</v>
       </c>
       <c r="C18" t="inlineStr"/>
+      <c r="D18" t="n">
+        <v>1352470.62</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -674,6 +730,9 @@
         <v>759610.45</v>
       </c>
       <c r="C19" t="inlineStr"/>
+      <c r="D19" t="n">
+        <v>676616.1899999999</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -685,6 +744,9 @@
         <v>57514.45</v>
       </c>
       <c r="C20" t="inlineStr"/>
+      <c r="D20" t="n">
+        <v>57498.64</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -696,6 +758,9 @@
         <v>15998.35</v>
       </c>
       <c r="C21" t="inlineStr"/>
+      <c r="D21" t="n">
+        <v>19259.31</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -707,6 +772,9 @@
         <v>29750.4</v>
       </c>
       <c r="C22" t="inlineStr"/>
+      <c r="D22" t="n">
+        <v>37876.65</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -718,6 +786,9 @@
         <v>477784.31</v>
       </c>
       <c r="C23" t="inlineStr"/>
+      <c r="D23" t="n">
+        <v>471408.99</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -729,6 +800,9 @@
         <v>611641.45</v>
       </c>
       <c r="C24" t="inlineStr"/>
+      <c r="D24" t="n">
+        <v>639554.78</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -740,6 +814,9 @@
         <v>601642.11</v>
       </c>
       <c r="C25" t="inlineStr"/>
+      <c r="D25" t="n">
+        <v>652523.27</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -751,6 +828,9 @@
         <v>613831.85</v>
       </c>
       <c r="C26" t="inlineStr"/>
+      <c r="D26" t="n">
+        <v>894207.87</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -764,6 +844,9 @@
       <c r="C27" t="n">
         <v>458092.97</v>
       </c>
+      <c r="D27" t="n">
+        <v>467544.09</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -777,6 +860,9 @@
       <c r="C28" t="n">
         <v>95762.06</v>
       </c>
+      <c r="D28" t="n">
+        <v>96347.05</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -790,6 +876,9 @@
       <c r="C29" t="n">
         <v>1942133.3</v>
       </c>
+      <c r="D29" t="n">
+        <v>1944921.58</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -803,6 +892,9 @@
       <c r="C30" t="n">
         <v>69504.27</v>
       </c>
+      <c r="D30" t="n">
+        <v>63551.75</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -816,6 +908,9 @@
       <c r="C31" t="n">
         <v>24517.51</v>
       </c>
+      <c r="D31" t="n">
+        <v>24488.73</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -829,6 +924,9 @@
       <c r="C32" t="n">
         <v>330584.64</v>
       </c>
+      <c r="D32" t="n">
+        <v>330716.74</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -842,6 +940,9 @@
       <c r="C33" t="n">
         <v>563917.42</v>
       </c>
+      <c r="D33" t="n">
+        <v>469304.61</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -855,6 +956,9 @@
       <c r="C34" t="n">
         <v>120265.95</v>
       </c>
+      <c r="D34" t="n">
+        <v>154369.91</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -868,6 +972,9 @@
       <c r="C35" t="n">
         <v>22642.85</v>
       </c>
+      <c r="D35" t="n">
+        <v>25572.62</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -881,6 +988,9 @@
       <c r="C36" t="n">
         <v>105793.94</v>
       </c>
+      <c r="D36" t="n">
+        <v>105548.48</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -894,6 +1004,9 @@
       <c r="C37" t="n">
         <v>248946.29</v>
       </c>
+      <c r="D37" t="n">
+        <v>248943.45</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -907,6 +1020,9 @@
       <c r="C38" t="n">
         <v>99476.06</v>
       </c>
+      <c r="D38" t="n">
+        <v>73153.64</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -918,6 +1034,9 @@
         <v>220924.8</v>
       </c>
       <c r="C39" t="inlineStr"/>
+      <c r="D39" t="n">
+        <v>221336.87</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -931,6 +1050,9 @@
       <c r="C40" t="n">
         <v>398675.83</v>
       </c>
+      <c r="D40" t="n">
+        <v>399158.52</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -944,6 +1066,9 @@
       <c r="C41" t="n">
         <v>142655.19</v>
       </c>
+      <c r="D41" t="n">
+        <v>142701.06</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -957,6 +1082,9 @@
       <c r="C42" t="n">
         <v>319994.27</v>
       </c>
+      <c r="D42" t="n">
+        <v>320451.4</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -970,6 +1098,9 @@
       <c r="C43" t="n">
         <v>229555.44</v>
       </c>
+      <c r="D43" t="n">
+        <v>216429.54</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -983,6 +1114,9 @@
       <c r="C44" t="n">
         <v>1061127.24</v>
       </c>
+      <c r="D44" t="n">
+        <v>1060780.75</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -996,6 +1130,9 @@
       <c r="C45" t="n">
         <v>2506691.17</v>
       </c>
+      <c r="D45" t="n">
+        <v>2505899.29</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -1009,6 +1146,9 @@
       <c r="C46" t="n">
         <v>1513462.28</v>
       </c>
+      <c r="D46" t="n">
+        <v>1509953.49</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -1022,6 +1162,9 @@
       <c r="C47" t="n">
         <v>154269.06</v>
       </c>
+      <c r="D47" t="n">
+        <v>156535.78</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -1035,6 +1178,9 @@
       <c r="C48" t="n">
         <v>320424.99</v>
       </c>
+      <c r="D48" t="n">
+        <v>319870.37</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -1048,6 +1194,9 @@
       <c r="C49" t="n">
         <v>114605.83</v>
       </c>
+      <c r="D49" t="n">
+        <v>114365.76</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -1061,6 +1210,9 @@
       <c r="C50" t="n">
         <v>189512.06</v>
       </c>
+      <c r="D50" t="n">
+        <v>189693.09</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -1074,6 +1226,9 @@
       <c r="C51" t="n">
         <v>495110.27</v>
       </c>
+      <c r="D51" t="n">
+        <v>500055.58</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
@@ -1086,6 +1241,9 @@
       </c>
       <c r="C52" t="n">
         <v>19309300.41</v>
+      </c>
+      <c r="D52" t="n">
+        <v>24502723.66</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/ALUA.xlsx
+++ b/backend/src/excel_handler/files/ALUA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D52"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,11 @@
           <t>20-01-2023</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>27-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -465,6 +470,9 @@
       <c r="D2" t="n">
         <v>437008.75</v>
       </c>
+      <c r="E2" t="n">
+        <v>437154.48</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -481,6 +489,9 @@
       <c r="D3" t="n">
         <v>922500.4399999999</v>
       </c>
+      <c r="E3" t="n">
+        <v>953688.5600000001</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -497,6 +508,9 @@
       <c r="D4" t="n">
         <v>105323.75</v>
       </c>
+      <c r="E4" t="n">
+        <v>120495.71</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -513,6 +527,9 @@
       <c r="D5" t="n">
         <v>235757.55</v>
       </c>
+      <c r="E5" t="n">
+        <v>235932.29</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -529,6 +546,9 @@
       <c r="D6" t="n">
         <v>331696.65</v>
       </c>
+      <c r="E6" t="n">
+        <v>331145.03</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -545,6 +565,9 @@
       <c r="D7" t="n">
         <v>1002487.38</v>
       </c>
+      <c r="E7" t="n">
+        <v>1001631.2</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -561,6 +584,9 @@
       <c r="D8" t="n">
         <v>598832.55</v>
       </c>
+      <c r="E8" t="n">
+        <v>598767.6899999999</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -577,6 +603,9 @@
       <c r="D9" t="n">
         <v>972815.3100000001</v>
       </c>
+      <c r="E9" t="n">
+        <v>1044012.47</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -593,6 +622,9 @@
       <c r="D10" t="n">
         <v>11612.95</v>
       </c>
+      <c r="E10" t="n">
+        <v>11616.22</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -609,6 +641,9 @@
       <c r="D11" t="n">
         <v>942604.53</v>
       </c>
+      <c r="E11" t="n">
+        <v>943980.7</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -625,6 +660,9 @@
       <c r="D12" t="n">
         <v>35547.39</v>
       </c>
+      <c r="E12" t="n">
+        <v>35516.83</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -641,6 +679,9 @@
       <c r="D13" t="n">
         <v>8195.85</v>
       </c>
+      <c r="E13" t="n">
+        <v>8198.610000000001</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -657,6 +698,9 @@
       <c r="D14" t="n">
         <v>13379.28</v>
       </c>
+      <c r="E14" t="n">
+        <v>13447.17</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -673,6 +717,9 @@
       <c r="D15" t="n">
         <v>700581.14</v>
       </c>
+      <c r="E15" t="n">
+        <v>699058.89</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -689,6 +736,9 @@
       <c r="D16" t="n">
         <v>196577.99</v>
       </c>
+      <c r="E16" t="n">
+        <v>196619.02</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -704,6 +754,9 @@
       </c>
       <c r="D17" t="n">
         <v>2024747.26</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1994650.8</v>
       </c>
     </row>
     <row r="18">
@@ -719,6 +772,9 @@
       <c r="D18" t="n">
         <v>1352470.62</v>
       </c>
+      <c r="E18" t="n">
+        <v>1352875.94</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -733,6 +789,9 @@
       <c r="D19" t="n">
         <v>676616.1899999999</v>
       </c>
+      <c r="E19" t="n">
+        <v>676748.47</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -747,6 +806,9 @@
       <c r="D20" t="n">
         <v>57498.64</v>
       </c>
+      <c r="E20" t="n">
+        <v>57482.38</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -761,6 +823,9 @@
       <c r="D21" t="n">
         <v>19259.31</v>
       </c>
+      <c r="E21" t="n">
+        <v>19247.41</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -775,6 +840,9 @@
       <c r="D22" t="n">
         <v>37876.65</v>
       </c>
+      <c r="E22" t="n">
+        <v>37893.5</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -789,6 +857,9 @@
       <c r="D23" t="n">
         <v>471408.99</v>
       </c>
+      <c r="E23" t="n">
+        <v>462745.4</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -803,6 +874,9 @@
       <c r="D24" t="n">
         <v>639554.78</v>
       </c>
+      <c r="E24" t="n">
+        <v>690681.27</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -817,6 +891,9 @@
       <c r="D25" t="n">
         <v>652523.27</v>
       </c>
+      <c r="E25" t="n">
+        <v>659189.73</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -831,6 +908,9 @@
       <c r="D26" t="n">
         <v>894207.87</v>
       </c>
+      <c r="E26" t="n">
+        <v>979939.37</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -847,6 +927,9 @@
       <c r="D27" t="n">
         <v>467544.09</v>
       </c>
+      <c r="E27" t="n">
+        <v>470667.3</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -863,6 +946,9 @@
       <c r="D28" t="n">
         <v>96347.05</v>
       </c>
+      <c r="E28" t="n">
+        <v>96066.91</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -879,6 +965,9 @@
       <c r="D29" t="n">
         <v>1944921.58</v>
       </c>
+      <c r="E29" t="n">
+        <v>1946633.34</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -895,6 +984,9 @@
       <c r="D30" t="n">
         <v>63551.75</v>
       </c>
+      <c r="E30" t="n">
+        <v>63615.34</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -911,6 +1003,9 @@
       <c r="D31" t="n">
         <v>24488.73</v>
       </c>
+      <c r="E31" t="n">
+        <v>24520.26</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -927,6 +1022,9 @@
       <c r="D32" t="n">
         <v>330716.74</v>
       </c>
+      <c r="E32" t="n">
+        <v>330368.44</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -943,6 +1041,9 @@
       <c r="D33" t="n">
         <v>469304.61</v>
       </c>
+      <c r="E33" t="n">
+        <v>469741.89</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -959,6 +1060,9 @@
       <c r="D34" t="n">
         <v>154369.91</v>
       </c>
+      <c r="E34" t="n">
+        <v>161544.86</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -975,6 +1079,9 @@
       <c r="D35" t="n">
         <v>25572.62</v>
       </c>
+      <c r="E35" t="n">
+        <v>25604.97</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -991,6 +1098,9 @@
       <c r="D36" t="n">
         <v>105548.48</v>
       </c>
+      <c r="E36" t="n">
+        <v>119994.36</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1007,6 +1117,9 @@
       <c r="D37" t="n">
         <v>248943.45</v>
       </c>
+      <c r="E37" t="n">
+        <v>248852.33</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1022,6 +1135,9 @@
       </c>
       <c r="D38" t="n">
         <v>73153.64</v>
+      </c>
+      <c r="E38" t="n">
+        <v>73189.88</v>
       </c>
     </row>
     <row r="39">
@@ -1037,6 +1153,9 @@
       <c r="D39" t="n">
         <v>221336.87</v>
       </c>
+      <c r="E39" t="n">
+        <v>220976.87</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -1053,6 +1172,9 @@
       <c r="D40" t="n">
         <v>399158.52</v>
       </c>
+      <c r="E40" t="n">
+        <v>398497.8</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -1069,6 +1191,9 @@
       <c r="D41" t="n">
         <v>142701.06</v>
       </c>
+      <c r="E41" t="n">
+        <v>142501.45</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -1085,6 +1210,9 @@
       <c r="D42" t="n">
         <v>320451.4</v>
       </c>
+      <c r="E42" t="n">
+        <v>320322.24</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -1101,6 +1229,9 @@
       <c r="D43" t="n">
         <v>216429.54</v>
       </c>
+      <c r="E43" t="n">
+        <v>212345.78</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -1117,6 +1248,9 @@
       <c r="D44" t="n">
         <v>1060780.75</v>
       </c>
+      <c r="E44" t="n">
+        <v>1059729.42</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -1133,6 +1267,9 @@
       <c r="D45" t="n">
         <v>2505899.29</v>
       </c>
+      <c r="E45" t="n">
+        <v>2508220.54</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -1149,6 +1286,7 @@
       <c r="D46" t="n">
         <v>1509953.49</v>
       </c>
+      <c r="E46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -1165,6 +1303,9 @@
       <c r="D47" t="n">
         <v>156535.78</v>
       </c>
+      <c r="E47" t="n">
+        <v>158187.86</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -1181,6 +1322,9 @@
       <c r="D48" t="n">
         <v>319870.37</v>
       </c>
+      <c r="E48" t="n">
+        <v>319281.8</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -1197,6 +1341,9 @@
       <c r="D49" t="n">
         <v>114365.76</v>
       </c>
+      <c r="E49" t="n">
+        <v>131282.2</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -1213,6 +1360,7 @@
       <c r="D50" t="n">
         <v>189693.09</v>
       </c>
+      <c r="E50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -1229,6 +1377,9 @@
       <c r="D51" t="n">
         <v>500055.58</v>
       </c>
+      <c r="E51" t="n">
+        <v>490741.81</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
@@ -1244,6 +1395,9 @@
       </c>
       <c r="D52" t="n">
         <v>24502723.66</v>
+      </c>
+      <c r="E52" t="n">
+        <v>23064864.98</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/ALUA.xlsx
+++ b/backend/src/excel_handler/files/ALUA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,11 @@
           <t>27-01-2023</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>03-02-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -473,6 +478,9 @@
       <c r="E2" t="n">
         <v>437154.48</v>
       </c>
+      <c r="F2" t="n">
+        <v>436812.01</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -492,6 +500,9 @@
       <c r="E3" t="n">
         <v>953688.5600000001</v>
       </c>
+      <c r="F3" t="n">
+        <v>952976.5600000001</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -511,6 +522,9 @@
       <c r="E4" t="n">
         <v>120495.71</v>
       </c>
+      <c r="F4" t="n">
+        <v>120575.02</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -530,6 +544,9 @@
       <c r="E5" t="n">
         <v>235932.29</v>
       </c>
+      <c r="F5" t="n">
+        <v>235968.98</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -549,6 +566,9 @@
       <c r="E6" t="n">
         <v>331145.03</v>
       </c>
+      <c r="F6" t="n">
+        <v>331538.5</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -568,6 +588,9 @@
       <c r="E7" t="n">
         <v>1001631.2</v>
       </c>
+      <c r="F7" t="n">
+        <v>1002417.53</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -587,6 +610,9 @@
       <c r="E8" t="n">
         <v>598767.6899999999</v>
       </c>
+      <c r="F8" t="n">
+        <v>598220.63</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -606,6 +632,9 @@
       <c r="E9" t="n">
         <v>1044012.47</v>
       </c>
+      <c r="F9" t="n">
+        <v>1044101.1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -625,6 +654,9 @@
       <c r="E10" t="n">
         <v>11616.22</v>
       </c>
+      <c r="F10" t="n">
+        <v>11564.49</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -644,6 +676,9 @@
       <c r="E11" t="n">
         <v>943980.7</v>
       </c>
+      <c r="F11" t="n">
+        <v>941236.88</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -663,6 +698,9 @@
       <c r="E12" t="n">
         <v>35516.83</v>
       </c>
+      <c r="F12" t="n">
+        <v>35500.79</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -682,6 +720,9 @@
       <c r="E13" t="n">
         <v>8198.610000000001</v>
       </c>
+      <c r="F13" t="n">
+        <v>8206.780000000001</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -701,6 +742,9 @@
       <c r="E14" t="n">
         <v>13447.17</v>
       </c>
+      <c r="F14" t="n">
+        <v>13437.99</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -720,6 +764,9 @@
       <c r="E15" t="n">
         <v>699058.89</v>
       </c>
+      <c r="F15" t="n">
+        <v>700041.92</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -739,6 +786,9 @@
       <c r="E16" t="n">
         <v>196619.02</v>
       </c>
+      <c r="F16" t="n">
+        <v>196591.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -757,6 +807,9 @@
       </c>
       <c r="E17" t="n">
         <v>1994650.8</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1984907.08</v>
       </c>
     </row>
     <row r="18">
@@ -775,6 +828,9 @@
       <c r="E18" t="n">
         <v>1352875.94</v>
       </c>
+      <c r="F18" t="n">
+        <v>1352904.63</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -792,6 +848,9 @@
       <c r="E19" t="n">
         <v>676748.47</v>
       </c>
+      <c r="F19" t="n">
+        <v>677091.54</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -809,6 +868,9 @@
       <c r="E20" t="n">
         <v>57482.38</v>
       </c>
+      <c r="F20" t="n">
+        <v>57536.32</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -826,6 +888,9 @@
       <c r="E21" t="n">
         <v>19247.41</v>
       </c>
+      <c r="F21" t="n">
+        <v>19250.38</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -843,6 +908,9 @@
       <c r="E22" t="n">
         <v>37893.5</v>
       </c>
+      <c r="F22" t="n">
+        <v>37890.91</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -860,6 +928,9 @@
       <c r="E23" t="n">
         <v>462745.4</v>
       </c>
+      <c r="F23" t="n">
+        <v>462549.27</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -877,6 +948,9 @@
       <c r="E24" t="n">
         <v>690681.27</v>
       </c>
+      <c r="F24" t="n">
+        <v>714319.46</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -894,6 +968,9 @@
       <c r="E25" t="n">
         <v>659189.73</v>
       </c>
+      <c r="F25" t="n">
+        <v>659074.29</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -911,6 +988,9 @@
       <c r="E26" t="n">
         <v>979939.37</v>
       </c>
+      <c r="F26" t="n">
+        <v>969234.1800000001</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -930,6 +1010,9 @@
       <c r="E27" t="n">
         <v>470667.3</v>
       </c>
+      <c r="F27" t="n">
+        <v>502718.04</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -949,6 +1032,9 @@
       <c r="E28" t="n">
         <v>96066.91</v>
       </c>
+      <c r="F28" t="n">
+        <v>95882.91</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -968,6 +1054,9 @@
       <c r="E29" t="n">
         <v>1946633.34</v>
       </c>
+      <c r="F29" t="n">
+        <v>1947682.2</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -987,6 +1076,9 @@
       <c r="E30" t="n">
         <v>63615.34</v>
       </c>
+      <c r="F30" t="n">
+        <v>63612.78</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1006,6 +1098,9 @@
       <c r="E31" t="n">
         <v>24520.26</v>
       </c>
+      <c r="F31" t="n">
+        <v>24495.6</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1025,6 +1120,9 @@
       <c r="E32" t="n">
         <v>330368.44</v>
       </c>
+      <c r="F32" t="n">
+        <v>330541.83</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1044,6 +1142,9 @@
       <c r="E33" t="n">
         <v>469741.89</v>
       </c>
+      <c r="F33" t="n">
+        <v>469312.16</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1063,6 +1164,9 @@
       <c r="E34" t="n">
         <v>161544.86</v>
       </c>
+      <c r="F34" t="n">
+        <v>160255.42</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1082,6 +1186,9 @@
       <c r="E35" t="n">
         <v>25604.97</v>
       </c>
+      <c r="F35" t="n">
+        <v>25572.71</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1101,6 +1208,9 @@
       <c r="E36" t="n">
         <v>119994.36</v>
       </c>
+      <c r="F36" t="n">
+        <v>135081.63</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1120,6 +1230,9 @@
       <c r="E37" t="n">
         <v>248852.33</v>
       </c>
+      <c r="F37" t="n">
+        <v>248813.27</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1138,6 +1251,9 @@
       </c>
       <c r="E38" t="n">
         <v>73189.88</v>
+      </c>
+      <c r="F38" t="n">
+        <v>73201.53999999999</v>
       </c>
     </row>
     <row r="39">
@@ -1156,6 +1272,9 @@
       <c r="E39" t="n">
         <v>220976.87</v>
       </c>
+      <c r="F39" t="n">
+        <v>221209.67</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -1175,6 +1294,9 @@
       <c r="E40" t="n">
         <v>398497.8</v>
       </c>
+      <c r="F40" t="n">
+        <v>399378.2</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -1194,6 +1316,9 @@
       <c r="E41" t="n">
         <v>142501.45</v>
       </c>
+      <c r="F41" t="n">
+        <v>142476.3</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -1213,6 +1338,9 @@
       <c r="E42" t="n">
         <v>320322.24</v>
       </c>
+      <c r="F42" t="n">
+        <v>320580.21</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -1232,6 +1360,9 @@
       <c r="E43" t="n">
         <v>212345.78</v>
       </c>
+      <c r="F43" t="n">
+        <v>229473.11</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -1251,6 +1382,9 @@
       <c r="E44" t="n">
         <v>1059729.42</v>
       </c>
+      <c r="F44" t="n">
+        <v>1059542.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -1270,6 +1404,9 @@
       <c r="E45" t="n">
         <v>2508220.54</v>
       </c>
+      <c r="F45" t="n">
+        <v>2505883.93</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -1287,6 +1424,7 @@
         <v>1509953.49</v>
       </c>
       <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -1306,6 +1444,9 @@
       <c r="E47" t="n">
         <v>158187.86</v>
       </c>
+      <c r="F47" t="n">
+        <v>156743.29</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -1325,6 +1466,9 @@
       <c r="E48" t="n">
         <v>319281.8</v>
       </c>
+      <c r="F48" t="n">
+        <v>320602</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -1344,6 +1488,9 @@
       <c r="E49" t="n">
         <v>131282.2</v>
       </c>
+      <c r="F49" t="n">
+        <v>131108.32</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -1361,6 +1508,7 @@
         <v>189693.09</v>
       </c>
       <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -1380,6 +1528,9 @@
       <c r="E51" t="n">
         <v>490741.81</v>
       </c>
+      <c r="F51" t="n">
+        <v>492087.6</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
@@ -1398,6 +1549,9 @@
       </c>
       <c r="E52" t="n">
         <v>23064864.98</v>
+      </c>
+      <c r="F52" t="n">
+        <v>23128117.26</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/ALUA.xlsx
+++ b/backend/src/excel_handler/files/ALUA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F52"/>
+  <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,11 @@
           <t>03-02-2023</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>10-02-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -481,6 +486,9 @@
       <c r="F2" t="n">
         <v>436812.01</v>
       </c>
+      <c r="G2" t="n">
+        <v>437305.77</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -503,6 +511,9 @@
       <c r="F3" t="n">
         <v>952976.5600000001</v>
       </c>
+      <c r="G3" t="n">
+        <v>954028.14</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -525,6 +536,9 @@
       <c r="F4" t="n">
         <v>120575.02</v>
       </c>
+      <c r="G4" t="n">
+        <v>120532.19</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -547,6 +561,9 @@
       <c r="F5" t="n">
         <v>235968.98</v>
       </c>
+      <c r="G5" t="n">
+        <v>235721.39</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -569,6 +586,9 @@
       <c r="F6" t="n">
         <v>331538.5</v>
       </c>
+      <c r="G6" t="n">
+        <v>331553.43</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -591,6 +611,9 @@
       <c r="F7" t="n">
         <v>1002417.53</v>
       </c>
+      <c r="G7" t="n">
+        <v>1001536.55</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -613,6 +636,9 @@
       <c r="F8" t="n">
         <v>598220.63</v>
       </c>
+      <c r="G8" t="n">
+        <v>599005.26</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -635,6 +661,9 @@
       <c r="F9" t="n">
         <v>1044101.1</v>
       </c>
+      <c r="G9" t="n">
+        <v>1080652.18</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -657,6 +686,9 @@
       <c r="F10" t="n">
         <v>11564.49</v>
       </c>
+      <c r="G10" t="n">
+        <v>11549.24</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -679,6 +711,9 @@
       <c r="F11" t="n">
         <v>941236.88</v>
       </c>
+      <c r="G11" t="n">
+        <v>945207.66</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -701,6 +736,9 @@
       <c r="F12" t="n">
         <v>35500.79</v>
       </c>
+      <c r="G12" t="n">
+        <v>35420.96</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -723,6 +761,9 @@
       <c r="F13" t="n">
         <v>8206.780000000001</v>
       </c>
+      <c r="G13" t="n">
+        <v>8199.459999999999</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -745,6 +786,9 @@
       <c r="F14" t="n">
         <v>13437.99</v>
       </c>
+      <c r="G14" t="n">
+        <v>13398.86</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -767,6 +811,9 @@
       <c r="F15" t="n">
         <v>700041.92</v>
       </c>
+      <c r="G15" t="n">
+        <v>738559.08</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -789,6 +836,9 @@
       <c r="F16" t="n">
         <v>196591.95</v>
       </c>
+      <c r="G16" t="n">
+        <v>196511.79</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -810,6 +860,9 @@
       </c>
       <c r="F17" t="n">
         <v>1984907.08</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1974597.92</v>
       </c>
     </row>
     <row r="18">
@@ -831,6 +884,9 @@
       <c r="F18" t="n">
         <v>1352904.63</v>
       </c>
+      <c r="G18" t="n">
+        <v>1353842.07</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -851,6 +907,9 @@
       <c r="F19" t="n">
         <v>677091.54</v>
       </c>
+      <c r="G19" t="n">
+        <v>676469.3</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -871,6 +930,9 @@
       <c r="F20" t="n">
         <v>57536.32</v>
       </c>
+      <c r="G20" t="n">
+        <v>57519.67</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -891,6 +953,9 @@
       <c r="F21" t="n">
         <v>19250.38</v>
       </c>
+      <c r="G21" t="n">
+        <v>19242.33</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -911,6 +976,9 @@
       <c r="F22" t="n">
         <v>37890.91</v>
       </c>
+      <c r="G22" t="n">
+        <v>37870.15</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -931,6 +999,9 @@
       <c r="F23" t="n">
         <v>462549.27</v>
       </c>
+      <c r="G23" t="n">
+        <v>464267.34</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -951,6 +1022,9 @@
       <c r="F24" t="n">
         <v>714319.46</v>
       </c>
+      <c r="G24" t="n">
+        <v>724282.86</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -971,6 +1045,9 @@
       <c r="F25" t="n">
         <v>659074.29</v>
       </c>
+      <c r="G25" t="n">
+        <v>668256.76</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -991,6 +1068,9 @@
       <c r="F26" t="n">
         <v>969234.1800000001</v>
       </c>
+      <c r="G26" t="n">
+        <v>966837.74</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1013,6 +1093,9 @@
       <c r="F27" t="n">
         <v>502718.04</v>
       </c>
+      <c r="G27" t="n">
+        <v>503577.65</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1035,6 +1118,9 @@
       <c r="F28" t="n">
         <v>95882.91</v>
       </c>
+      <c r="G28" t="n">
+        <v>96267.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1057,6 +1143,9 @@
       <c r="F29" t="n">
         <v>1947682.2</v>
       </c>
+      <c r="G29" t="n">
+        <v>1946620.01</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1079,6 +1168,9 @@
       <c r="F30" t="n">
         <v>63612.78</v>
       </c>
+      <c r="G30" t="n">
+        <v>63545.05</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1101,6 +1193,9 @@
       <c r="F31" t="n">
         <v>24495.6</v>
       </c>
+      <c r="G31" t="n">
+        <v>24482.28</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1123,6 +1218,9 @@
       <c r="F32" t="n">
         <v>330541.83</v>
       </c>
+      <c r="G32" t="n">
+        <v>320771.11</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1145,6 +1243,9 @@
       <c r="F33" t="n">
         <v>469312.16</v>
       </c>
+      <c r="G33" t="n">
+        <v>469676.12</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1167,6 +1268,9 @@
       <c r="F34" t="n">
         <v>160255.42</v>
       </c>
+      <c r="G34" t="n">
+        <v>160345.83</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1189,6 +1293,9 @@
       <c r="F35" t="n">
         <v>25572.71</v>
       </c>
+      <c r="G35" t="n">
+        <v>25612.83</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1211,6 +1318,9 @@
       <c r="F36" t="n">
         <v>135081.63</v>
       </c>
+      <c r="G36" t="n">
+        <v>135011.99</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1233,6 +1343,9 @@
       <c r="F37" t="n">
         <v>248813.27</v>
       </c>
+      <c r="G37" t="n">
+        <v>248758.39</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1254,6 +1367,9 @@
       </c>
       <c r="F38" t="n">
         <v>73201.53999999999</v>
+      </c>
+      <c r="G38" t="n">
+        <v>96654.77</v>
       </c>
     </row>
     <row r="39">
@@ -1275,6 +1391,9 @@
       <c r="F39" t="n">
         <v>221209.67</v>
       </c>
+      <c r="G39" t="n">
+        <v>316438.6</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -1297,6 +1416,9 @@
       <c r="F40" t="n">
         <v>399378.2</v>
       </c>
+      <c r="G40" t="n">
+        <v>399262.44</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -1319,6 +1441,9 @@
       <c r="F41" t="n">
         <v>142476.3</v>
       </c>
+      <c r="G41" t="n">
+        <v>142501</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -1341,6 +1466,9 @@
       <c r="F42" t="n">
         <v>320580.21</v>
       </c>
+      <c r="G42" t="n">
+        <v>320491.89</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -1363,6 +1491,9 @@
       <c r="F43" t="n">
         <v>229473.11</v>
       </c>
+      <c r="G43" t="n">
+        <v>231945.46</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -1385,6 +1516,9 @@
       <c r="F44" t="n">
         <v>1059542.95</v>
       </c>
+      <c r="G44" t="n">
+        <v>1060798.98</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -1407,6 +1541,9 @@
       <c r="F45" t="n">
         <v>2505883.93</v>
       </c>
+      <c r="G45" t="n">
+        <v>2501389.44</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -1425,6 +1562,7 @@
       </c>
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -1447,6 +1585,9 @@
       <c r="F47" t="n">
         <v>156743.29</v>
       </c>
+      <c r="G47" t="n">
+        <v>156175.84</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -1469,6 +1610,9 @@
       <c r="F48" t="n">
         <v>320602</v>
       </c>
+      <c r="G48" t="n">
+        <v>319645.8</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -1491,6 +1635,9 @@
       <c r="F49" t="n">
         <v>131108.32</v>
       </c>
+      <c r="G49" t="n">
+        <v>131159.55</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -1509,6 +1656,7 @@
       </c>
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -1531,6 +1679,9 @@
       <c r="F51" t="n">
         <v>492087.6</v>
       </c>
+      <c r="G51" t="n">
+        <v>496244.7</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
@@ -1552,6 +1703,9 @@
       </c>
       <c r="F52" t="n">
         <v>23128117.26</v>
+      </c>
+      <c r="G52" t="n">
+        <v>23323501.08</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/ALUA.xlsx
+++ b/backend/src/excel_handler/files/ALUA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:H52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,11 @@
           <t>10-02-2023</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>17-02-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -489,6 +494,9 @@
       <c r="G2" t="n">
         <v>437305.77</v>
       </c>
+      <c r="H2" t="n">
+        <v>388362.29</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -514,6 +522,9 @@
       <c r="G3" t="n">
         <v>954028.14</v>
       </c>
+      <c r="H3" t="n">
+        <v>910147.72</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -539,6 +550,9 @@
       <c r="G4" t="n">
         <v>120532.19</v>
       </c>
+      <c r="H4" t="n">
+        <v>120676.63</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -564,6 +578,9 @@
       <c r="G5" t="n">
         <v>235721.39</v>
       </c>
+      <c r="H5" t="n">
+        <v>236094.3</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -589,6 +606,9 @@
       <c r="G6" t="n">
         <v>331553.43</v>
       </c>
+      <c r="H6" t="n">
+        <v>331327.17</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -614,6 +634,9 @@
       <c r="G7" t="n">
         <v>1001536.55</v>
       </c>
+      <c r="H7" t="n">
+        <v>1001492.73</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -639,6 +662,9 @@
       <c r="G8" t="n">
         <v>599005.26</v>
       </c>
+      <c r="H8" t="n">
+        <v>598750.75</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -664,6 +690,9 @@
       <c r="G9" t="n">
         <v>1080652.18</v>
       </c>
+      <c r="H9" t="n">
+        <v>1080562.59</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -689,6 +718,9 @@
       <c r="G10" t="n">
         <v>11549.24</v>
       </c>
+      <c r="H10" t="n">
+        <v>11563.19</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -714,6 +746,9 @@
       <c r="G11" t="n">
         <v>945207.66</v>
       </c>
+      <c r="H11" t="n">
+        <v>942802.45</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -739,6 +774,9 @@
       <c r="G12" t="n">
         <v>35420.96</v>
       </c>
+      <c r="H12" t="n">
+        <v>35491.81</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -764,6 +802,9 @@
       <c r="G13" t="n">
         <v>8199.459999999999</v>
       </c>
+      <c r="H13" t="n">
+        <v>8201.33</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -789,6 +830,9 @@
       <c r="G14" t="n">
         <v>13398.86</v>
       </c>
+      <c r="H14" t="n">
+        <v>13405.39</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -814,6 +858,9 @@
       <c r="G15" t="n">
         <v>738559.08</v>
       </c>
+      <c r="H15" t="n">
+        <v>737382.9300000001</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -839,6 +886,9 @@
       <c r="G16" t="n">
         <v>196511.79</v>
       </c>
+      <c r="H16" t="n">
+        <v>196839.24</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -863,6 +913,9 @@
       </c>
       <c r="G17" t="n">
         <v>1974597.92</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1976807.89</v>
       </c>
     </row>
     <row r="18">
@@ -887,6 +940,9 @@
       <c r="G18" t="n">
         <v>1353842.07</v>
       </c>
+      <c r="H18" t="n">
+        <v>1352331.44</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -910,6 +966,9 @@
       <c r="G19" t="n">
         <v>676469.3</v>
       </c>
+      <c r="H19" t="n">
+        <v>676213.22</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -933,6 +992,9 @@
       <c r="G20" t="n">
         <v>57519.67</v>
       </c>
+      <c r="H20" t="n">
+        <v>57666.83</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -956,6 +1018,9 @@
       <c r="G21" t="n">
         <v>19242.33</v>
       </c>
+      <c r="H21" t="n">
+        <v>19244.94</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -979,6 +1044,9 @@
       <c r="G22" t="n">
         <v>37870.15</v>
       </c>
+      <c r="H22" t="n">
+        <v>37900.39</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1002,6 +1070,9 @@
       <c r="G23" t="n">
         <v>464267.34</v>
       </c>
+      <c r="H23" t="n">
+        <v>463151.91</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1025,6 +1096,9 @@
       <c r="G24" t="n">
         <v>724282.86</v>
       </c>
+      <c r="H24" t="n">
+        <v>724431.5</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1048,6 +1122,9 @@
       <c r="G25" t="n">
         <v>668256.76</v>
       </c>
+      <c r="H25" t="n">
+        <v>669454.79</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1071,6 +1148,9 @@
       <c r="G26" t="n">
         <v>966837.74</v>
       </c>
+      <c r="H26" t="n">
+        <v>967559.23</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1096,6 +1176,9 @@
       <c r="G27" t="n">
         <v>503577.65</v>
       </c>
+      <c r="H27" t="n">
+        <v>504094.39</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1121,6 +1204,9 @@
       <c r="G28" t="n">
         <v>96267.95</v>
       </c>
+      <c r="H28" t="n">
+        <v>96147.23</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1146,6 +1232,9 @@
       <c r="G29" t="n">
         <v>1946620.01</v>
       </c>
+      <c r="H29" t="n">
+        <v>1497425.96</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1171,6 +1260,9 @@
       <c r="G30" t="n">
         <v>63545.05</v>
       </c>
+      <c r="H30" t="n">
+        <v>63500.08</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1196,6 +1288,9 @@
       <c r="G31" t="n">
         <v>24482.28</v>
       </c>
+      <c r="H31" t="n">
+        <v>24511.55</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1221,6 +1316,9 @@
       <c r="G32" t="n">
         <v>320771.11</v>
       </c>
+      <c r="H32" t="n">
+        <v>320300.06</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1246,6 +1344,9 @@
       <c r="G33" t="n">
         <v>469676.12</v>
       </c>
+      <c r="H33" t="n">
+        <v>469460.94</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1271,6 +1372,9 @@
       <c r="G34" t="n">
         <v>160345.83</v>
       </c>
+      <c r="H34" t="n">
+        <v>190178.49</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1296,6 +1400,9 @@
       <c r="G35" t="n">
         <v>25612.83</v>
       </c>
+      <c r="H35" t="n">
+        <v>25577.18</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1321,6 +1428,9 @@
       <c r="G36" t="n">
         <v>135011.99</v>
       </c>
+      <c r="H36" t="n">
+        <v>135058.39</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1346,6 +1456,9 @@
       <c r="G37" t="n">
         <v>248758.39</v>
       </c>
+      <c r="H37" t="n">
+        <v>248980.01</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1370,6 +1483,9 @@
       </c>
       <c r="G38" t="n">
         <v>96654.77</v>
+      </c>
+      <c r="H38" t="n">
+        <v>96794.8</v>
       </c>
     </row>
     <row r="39">
@@ -1394,6 +1510,9 @@
       <c r="G39" t="n">
         <v>316438.6</v>
       </c>
+      <c r="H39" t="n">
+        <v>335915.03</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -1419,6 +1538,9 @@
       <c r="G40" t="n">
         <v>399262.44</v>
       </c>
+      <c r="H40" t="n">
+        <v>399279.59</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -1444,6 +1566,9 @@
       <c r="G41" t="n">
         <v>142501</v>
       </c>
+      <c r="H41" t="n">
+        <v>142777.13</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -1469,6 +1594,9 @@
       <c r="G42" t="n">
         <v>320491.89</v>
       </c>
+      <c r="H42" t="n">
+        <v>319891.55</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -1494,6 +1622,9 @@
       <c r="G43" t="n">
         <v>231945.46</v>
       </c>
+      <c r="H43" t="n">
+        <v>232586.79</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -1519,6 +1650,9 @@
       <c r="G44" t="n">
         <v>1060798.98</v>
       </c>
+      <c r="H44" t="n">
+        <v>1061010.6</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -1543,6 +1677,9 @@
       </c>
       <c r="G45" t="n">
         <v>2501389.44</v>
+      </c>
+      <c r="H45" t="n">
+        <v>2495781.87</v>
       </c>
     </row>
     <row r="46">
@@ -1563,6 +1700,7 @@
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -1588,6 +1726,9 @@
       <c r="G47" t="n">
         <v>156175.84</v>
       </c>
+      <c r="H47" t="n">
+        <v>153891.89</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -1613,6 +1754,9 @@
       <c r="G48" t="n">
         <v>319645.8</v>
       </c>
+      <c r="H48" t="n">
+        <v>319890.45</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -1637,6 +1781,9 @@
       </c>
       <c r="G49" t="n">
         <v>131159.55</v>
+      </c>
+      <c r="H49" t="n">
+        <v>131210.88</v>
       </c>
     </row>
     <row r="50">
@@ -1657,6 +1804,7 @@
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -1682,6 +1830,9 @@
       <c r="G51" t="n">
         <v>496244.7</v>
       </c>
+      <c r="H51" t="n">
+        <v>485577.18</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
@@ -1706,6 +1857,9 @@
       </c>
       <c r="G52" t="n">
         <v>23323501.08</v>
+      </c>
+      <c r="H52" t="n">
+        <v>22822127.52</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/ALUA.xlsx
+++ b/backend/src/excel_handler/files/ALUA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H52"/>
+  <dimension ref="A1:I52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,11 @@
           <t>17-02-2023</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>24-02-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -497,6 +502,9 @@
       <c r="H2" t="n">
         <v>388362.29</v>
       </c>
+      <c r="I2" t="n">
+        <v>338435.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -525,6 +533,9 @@
       <c r="H3" t="n">
         <v>910147.72</v>
       </c>
+      <c r="I3" t="n">
+        <v>909695.97</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -553,6 +564,9 @@
       <c r="H4" t="n">
         <v>120676.63</v>
       </c>
+      <c r="I4" t="n">
+        <v>120460.69</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -581,6 +595,9 @@
       <c r="H5" t="n">
         <v>236094.3</v>
       </c>
+      <c r="I5" t="n">
+        <v>235899.83</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -609,6 +626,9 @@
       <c r="H6" t="n">
         <v>331327.17</v>
       </c>
+      <c r="I6" t="n">
+        <v>330750.65</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -637,6 +657,9 @@
       <c r="H7" t="n">
         <v>1001492.73</v>
       </c>
+      <c r="I7" t="n">
+        <v>1002100.82</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -665,6 +688,9 @@
       <c r="H8" t="n">
         <v>598750.75</v>
       </c>
+      <c r="I8" t="n">
+        <v>599119.8199999999</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -693,6 +719,9 @@
       <c r="H9" t="n">
         <v>1080562.59</v>
       </c>
+      <c r="I9" t="n">
+        <v>1080712.01</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -721,6 +750,9 @@
       <c r="H10" t="n">
         <v>11563.19</v>
       </c>
+      <c r="I10" t="n">
+        <v>11548.23</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -749,6 +781,9 @@
       <c r="H11" t="n">
         <v>942802.45</v>
       </c>
+      <c r="I11" t="n">
+        <v>944354.47</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -777,6 +812,9 @@
       <c r="H12" t="n">
         <v>35491.81</v>
       </c>
+      <c r="I12" t="n">
+        <v>35456.13</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -805,6 +843,9 @@
       <c r="H13" t="n">
         <v>8201.33</v>
       </c>
+      <c r="I13" t="n">
+        <v>8206.02</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -833,6 +874,9 @@
       <c r="H14" t="n">
         <v>13405.39</v>
       </c>
+      <c r="I14" t="n">
+        <v>13441.29</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -861,6 +905,9 @@
       <c r="H15" t="n">
         <v>737382.9300000001</v>
       </c>
+      <c r="I15" t="n">
+        <v>738285.42</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -889,6 +936,9 @@
       <c r="H16" t="n">
         <v>196839.24</v>
       </c>
+      <c r="I16" t="n">
+        <v>196856.07</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -916,6 +966,9 @@
       </c>
       <c r="H17" t="n">
         <v>1976807.89</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1962599.55</v>
       </c>
     </row>
     <row r="18">
@@ -943,6 +996,9 @@
       <c r="H18" t="n">
         <v>1352331.44</v>
       </c>
+      <c r="I18" t="n">
+        <v>1353920.21</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -969,6 +1025,9 @@
       <c r="H19" t="n">
         <v>676213.22</v>
       </c>
+      <c r="I19" t="n">
+        <v>676348.6800000001</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -995,6 +1054,9 @@
       <c r="H20" t="n">
         <v>57666.83</v>
       </c>
+      <c r="I20" t="n">
+        <v>57596.91</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1021,6 +1083,9 @@
       <c r="H21" t="n">
         <v>19244.94</v>
       </c>
+      <c r="I21" t="n">
+        <v>19266.87</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1047,6 +1112,9 @@
       <c r="H22" t="n">
         <v>37900.39</v>
       </c>
+      <c r="I22" t="n">
+        <v>37876.3</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1073,6 +1141,9 @@
       <c r="H23" t="n">
         <v>463151.91</v>
       </c>
+      <c r="I23" t="n">
+        <v>463479.53</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1099,6 +1170,9 @@
       <c r="H24" t="n">
         <v>724431.5</v>
       </c>
+      <c r="I24" t="n">
+        <v>689989.47</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1125,6 +1199,9 @@
       <c r="H25" t="n">
         <v>669454.79</v>
       </c>
+      <c r="I25" t="n">
+        <v>653530.89</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1151,6 +1228,9 @@
       <c r="H26" t="n">
         <v>967559.23</v>
       </c>
+      <c r="I26" t="n">
+        <v>956846.5</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1179,6 +1259,9 @@
       <c r="H27" t="n">
         <v>504094.39</v>
       </c>
+      <c r="I27" t="n">
+        <v>502688.84</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1207,6 +1290,9 @@
       <c r="H28" t="n">
         <v>96147.23</v>
       </c>
+      <c r="I28" t="n">
+        <v>95809.41</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1235,6 +1321,9 @@
       <c r="H29" t="n">
         <v>1497425.96</v>
       </c>
+      <c r="I29" t="n">
+        <v>1501919.81</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1263,6 +1352,9 @@
       <c r="H30" t="n">
         <v>63500.08</v>
       </c>
+      <c r="I30" t="n">
+        <v>63615.52</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1291,6 +1383,9 @@
       <c r="H31" t="n">
         <v>24511.55</v>
       </c>
+      <c r="I31" t="n">
+        <v>24470.96</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1319,6 +1414,9 @@
       <c r="H32" t="n">
         <v>320300.06</v>
       </c>
+      <c r="I32" t="n">
+        <v>285719.68</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1347,6 +1445,9 @@
       <c r="H33" t="n">
         <v>469460.94</v>
       </c>
+      <c r="I33" t="n">
+        <v>469220.1</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1375,6 +1476,9 @@
       <c r="H34" t="n">
         <v>190178.49</v>
       </c>
+      <c r="I34" t="n">
+        <v>190331.07</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1403,6 +1507,9 @@
       <c r="H35" t="n">
         <v>25577.18</v>
       </c>
+      <c r="I35" t="n">
+        <v>25612.74</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1431,6 +1538,9 @@
       <c r="H36" t="n">
         <v>135058.39</v>
       </c>
+      <c r="I36" t="n">
+        <v>145131.06</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1459,6 +1569,9 @@
       <c r="H37" t="n">
         <v>248980.01</v>
       </c>
+      <c r="I37" t="n">
+        <v>248744.99</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1486,6 +1599,9 @@
       </c>
       <c r="H38" t="n">
         <v>96794.8</v>
+      </c>
+      <c r="I38" t="n">
+        <v>96802.31</v>
       </c>
     </row>
     <row r="39">
@@ -1513,6 +1629,9 @@
       <c r="H39" t="n">
         <v>335915.03</v>
       </c>
+      <c r="I39" t="n">
+        <v>335662.86</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -1541,6 +1660,9 @@
       <c r="H40" t="n">
         <v>399279.59</v>
       </c>
+      <c r="I40" t="n">
+        <v>399055.01</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -1569,6 +1691,9 @@
       <c r="H41" t="n">
         <v>142777.13</v>
       </c>
+      <c r="I41" t="n">
+        <v>142543.69</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -1597,6 +1722,9 @@
       <c r="H42" t="n">
         <v>319891.55</v>
       </c>
+      <c r="I42" t="n">
+        <v>320157.72</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -1625,6 +1753,9 @@
       <c r="H43" t="n">
         <v>232586.79</v>
       </c>
+      <c r="I43" t="n">
+        <v>232273.67</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -1653,6 +1784,9 @@
       <c r="H44" t="n">
         <v>1061010.6</v>
       </c>
+      <c r="I44" t="n">
+        <v>1061198.91</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -1680,6 +1814,9 @@
       </c>
       <c r="H45" t="n">
         <v>2495781.87</v>
+      </c>
+      <c r="I45" t="n">
+        <v>2505831.99</v>
       </c>
     </row>
     <row r="46">
@@ -1701,6 +1838,7 @@
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -1729,6 +1867,9 @@
       <c r="H47" t="n">
         <v>153891.89</v>
       </c>
+      <c r="I47" t="n">
+        <v>156993.69</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -1757,6 +1898,9 @@
       <c r="H48" t="n">
         <v>319890.45</v>
       </c>
+      <c r="I48" t="n">
+        <v>319230.37</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -1784,6 +1928,9 @@
       </c>
       <c r="H49" t="n">
         <v>131210.88</v>
+      </c>
+      <c r="I49" t="n">
+        <v>131032.6</v>
       </c>
     </row>
     <row r="50">
@@ -1805,6 +1952,7 @@
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -1833,6 +1981,9 @@
       <c r="H51" t="n">
         <v>485577.18</v>
       </c>
+      <c r="I51" t="n">
+        <v>482783.52</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
@@ -1860,6 +2011,9 @@
       </c>
       <c r="H52" t="n">
         <v>22822127.52</v>
+      </c>
+      <c r="I52" t="n">
+        <v>22690825.28</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/ALUA.xlsx
+++ b/backend/src/excel_handler/files/ALUA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I52"/>
+  <dimension ref="A1:J52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,6 +474,11 @@
           <t>24-02-2023</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>03-03-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -505,6 +510,9 @@
       <c r="I2" t="n">
         <v>338435.95</v>
       </c>
+      <c r="J2" t="n">
+        <v>338789.98</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -536,6 +544,9 @@
       <c r="I3" t="n">
         <v>909695.97</v>
       </c>
+      <c r="J3" t="n">
+        <v>909206.85</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -567,6 +578,9 @@
       <c r="I4" t="n">
         <v>120460.69</v>
       </c>
+      <c r="J4" t="n">
+        <v>120643.75</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -598,6 +612,9 @@
       <c r="I5" t="n">
         <v>235899.83</v>
       </c>
+      <c r="J5" t="n">
+        <v>236040.51</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -629,6 +646,9 @@
       <c r="I6" t="n">
         <v>330750.65</v>
       </c>
+      <c r="J6" t="n">
+        <v>331538.82</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -660,6 +680,9 @@
       <c r="I7" t="n">
         <v>1002100.82</v>
       </c>
+      <c r="J7" t="n">
+        <v>1002119.32</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -691,6 +714,9 @@
       <c r="I8" t="n">
         <v>599119.8199999999</v>
       </c>
+      <c r="J8" t="n">
+        <v>598299.92</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -722,6 +748,9 @@
       <c r="I9" t="n">
         <v>1080712.01</v>
       </c>
+      <c r="J9" t="n">
+        <v>1080742.12</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -753,6 +782,9 @@
       <c r="I10" t="n">
         <v>11548.23</v>
       </c>
+      <c r="J10" t="n">
+        <v>11565.94</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -784,6 +816,9 @@
       <c r="I11" t="n">
         <v>944354.47</v>
       </c>
+      <c r="J11" t="n">
+        <v>941188.05</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -815,6 +850,9 @@
       <c r="I12" t="n">
         <v>35456.13</v>
       </c>
+      <c r="J12" t="n">
+        <v>35445.07</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -846,6 +884,9 @@
       <c r="I13" t="n">
         <v>8206.02</v>
       </c>
+      <c r="J13" t="n">
+        <v>8198.200000000001</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -877,6 +918,9 @@
       <c r="I14" t="n">
         <v>13441.29</v>
       </c>
+      <c r="J14" t="n">
+        <v>13400.1</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -908,6 +952,9 @@
       <c r="I15" t="n">
         <v>738285.42</v>
       </c>
+      <c r="J15" t="n">
+        <v>813079.15</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -939,6 +986,9 @@
       <c r="I16" t="n">
         <v>196856.07</v>
       </c>
+      <c r="J16" t="n">
+        <v>196875.27</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -969,6 +1019,9 @@
       </c>
       <c r="I17" t="n">
         <v>1962599.55</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1930844.13</v>
       </c>
     </row>
     <row r="18">
@@ -999,6 +1052,9 @@
       <c r="I18" t="n">
         <v>1353920.21</v>
       </c>
+      <c r="J18" t="n">
+        <v>1353960.94</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1028,6 +1084,9 @@
       <c r="I19" t="n">
         <v>676348.6800000001</v>
       </c>
+      <c r="J19" t="n">
+        <v>676691.05</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1057,6 +1116,9 @@
       <c r="I20" t="n">
         <v>57596.91</v>
       </c>
+      <c r="J20" t="n">
+        <v>57226.31</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1086,6 +1148,9 @@
       <c r="I21" t="n">
         <v>19266.87</v>
       </c>
+      <c r="J21" t="n">
+        <v>19258.99</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1115,6 +1180,9 @@
       <c r="I22" t="n">
         <v>37876.3</v>
       </c>
+      <c r="J22" t="n">
+        <v>37872.42</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1144,6 +1212,9 @@
       <c r="I23" t="n">
         <v>463479.53</v>
       </c>
+      <c r="J23" t="n">
+        <v>464774.45</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1173,6 +1244,9 @@
       <c r="I24" t="n">
         <v>689989.47</v>
       </c>
+      <c r="J24" t="n">
+        <v>684835.1899999999</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1202,6 +1276,9 @@
       <c r="I25" t="n">
         <v>653530.89</v>
       </c>
+      <c r="J25" t="n">
+        <v>639080.25</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1231,6 +1308,9 @@
       <c r="I26" t="n">
         <v>956846.5</v>
       </c>
+      <c r="J26" t="n">
+        <v>945036.96</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1262,6 +1342,9 @@
       <c r="I27" t="n">
         <v>502688.84</v>
       </c>
+      <c r="J27" t="n">
+        <v>502715.15</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1293,6 +1376,9 @@
       <c r="I28" t="n">
         <v>95809.41</v>
       </c>
+      <c r="J28" t="n">
+        <v>96059.37</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1324,6 +1410,9 @@
       <c r="I29" t="n">
         <v>1501919.81</v>
       </c>
+      <c r="J29" t="n">
+        <v>1223321.24</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1355,6 +1444,9 @@
       <c r="I30" t="n">
         <v>63615.52</v>
       </c>
+      <c r="J30" t="n">
+        <v>63606.52</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1386,6 +1478,9 @@
       <c r="I31" t="n">
         <v>24470.96</v>
       </c>
+      <c r="J31" t="n">
+        <v>24517.82</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1417,6 +1512,9 @@
       <c r="I32" t="n">
         <v>285719.68</v>
       </c>
+      <c r="J32" t="n">
+        <v>275526.32</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1448,6 +1546,9 @@
       <c r="I33" t="n">
         <v>469220.1</v>
       </c>
+      <c r="J33" t="n">
+        <v>469670</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1479,6 +1580,9 @@
       <c r="I34" t="n">
         <v>190331.07</v>
       </c>
+      <c r="J34" t="n">
+        <v>190497.58</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1510,6 +1614,9 @@
       <c r="I35" t="n">
         <v>25612.74</v>
       </c>
+      <c r="J35" t="n">
+        <v>25579.29</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1541,6 +1648,9 @@
       <c r="I36" t="n">
         <v>145131.06</v>
       </c>
+      <c r="J36" t="n">
+        <v>120092.97</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1572,6 +1682,9 @@
       <c r="I37" t="n">
         <v>248744.99</v>
       </c>
+      <c r="J37" t="n">
+        <v>248726.16</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1602,6 +1715,9 @@
       </c>
       <c r="I38" t="n">
         <v>96802.31</v>
+      </c>
+      <c r="J38" t="n">
+        <v>96717.49000000001</v>
       </c>
     </row>
     <row r="39">
@@ -1632,6 +1748,9 @@
       <c r="I39" t="n">
         <v>335662.86</v>
       </c>
+      <c r="J39" t="n">
+        <v>336229.01</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -1663,6 +1782,9 @@
       <c r="I40" t="n">
         <v>399055.01</v>
       </c>
+      <c r="J40" t="n">
+        <v>399206.85</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -1694,6 +1816,9 @@
       <c r="I41" t="n">
         <v>142543.69</v>
       </c>
+      <c r="J41" t="n">
+        <v>142829.63</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -1725,6 +1850,9 @@
       <c r="I42" t="n">
         <v>320157.72</v>
       </c>
+      <c r="J42" t="n">
+        <v>319942.86</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -1756,6 +1884,9 @@
       <c r="I43" t="n">
         <v>232273.67</v>
       </c>
+      <c r="J43" t="n">
+        <v>232510.93</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -1787,6 +1918,9 @@
       <c r="I44" t="n">
         <v>1061198.91</v>
       </c>
+      <c r="J44" t="n">
+        <v>1059931.88</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -1817,6 +1951,9 @@
       </c>
       <c r="I45" t="n">
         <v>2505831.99</v>
+      </c>
+      <c r="J45" t="n">
+        <v>2454786.01</v>
       </c>
     </row>
     <row r="46">
@@ -1839,6 +1976,7 @@
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -1870,6 +2008,9 @@
       <c r="I47" t="n">
         <v>156993.69</v>
       </c>
+      <c r="J47" t="n">
+        <v>157965.71</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -1901,6 +2042,9 @@
       <c r="I48" t="n">
         <v>319230.37</v>
       </c>
+      <c r="J48" t="n">
+        <v>320356.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -1931,6 +2075,9 @@
       </c>
       <c r="I49" t="n">
         <v>131032.6</v>
+      </c>
+      <c r="J49" t="n">
+        <v>131137.68</v>
       </c>
     </row>
     <row r="50">
@@ -1953,6 +2100,7 @@
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -1984,6 +2132,9 @@
       <c r="I51" t="n">
         <v>482783.52</v>
       </c>
+      <c r="J51" t="n">
+        <v>475290.24</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
@@ -2014,6 +2165,9 @@
       </c>
       <c r="I52" t="n">
         <v>22690825.28</v>
+      </c>
+      <c r="J52" t="n">
+        <v>22338641.16</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/ALUA.xlsx
+++ b/backend/src/excel_handler/files/ALUA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J52"/>
+  <dimension ref="A1:K52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,6 +479,11 @@
           <t>03-03-2023</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>10-03-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -513,6 +518,9 @@
       <c r="J2" t="n">
         <v>338789.98</v>
       </c>
+      <c r="K2" t="n">
+        <v>338230.79</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -547,6 +555,9 @@
       <c r="J3" t="n">
         <v>909206.85</v>
       </c>
+      <c r="K3" t="n">
+        <v>937850.71</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -581,6 +592,9 @@
       <c r="J4" t="n">
         <v>120643.75</v>
       </c>
+      <c r="K4" t="n">
+        <v>120517.69</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -615,6 +629,9 @@
       <c r="J5" t="n">
         <v>236040.51</v>
       </c>
+      <c r="K5" t="n">
+        <v>235782.07</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -649,6 +666,9 @@
       <c r="J6" t="n">
         <v>331538.82</v>
       </c>
+      <c r="K6" t="n">
+        <v>225380.98</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -683,6 +703,9 @@
       <c r="J7" t="n">
         <v>1002119.32</v>
       </c>
+      <c r="K7" t="n">
+        <v>699870.52</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -717,6 +740,9 @@
       <c r="J8" t="n">
         <v>598299.92</v>
       </c>
+      <c r="K8" t="n">
+        <v>599069.76</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -751,6 +777,9 @@
       <c r="J9" t="n">
         <v>1080742.12</v>
       </c>
+      <c r="K9" t="n">
+        <v>1080670.59</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -785,6 +814,9 @@
       <c r="J10" t="n">
         <v>11565.94</v>
       </c>
+      <c r="K10" t="n">
+        <v>11589.02</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -819,6 +851,9 @@
       <c r="J11" t="n">
         <v>941188.05</v>
       </c>
+      <c r="K11" t="n">
+        <v>939496.76</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -853,6 +888,9 @@
       <c r="J12" t="n">
         <v>35445.07</v>
       </c>
+      <c r="K12" t="n">
+        <v>4210.63</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -887,6 +925,9 @@
       <c r="J13" t="n">
         <v>8198.200000000001</v>
       </c>
+      <c r="K13" t="n">
+        <v>8194.98</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -921,6 +962,9 @@
       <c r="J14" t="n">
         <v>13400.1</v>
       </c>
+      <c r="K14" t="n">
+        <v>13431.48</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -955,6 +999,9 @@
       <c r="J15" t="n">
         <v>813079.15</v>
       </c>
+      <c r="K15" t="n">
+        <v>968114.1800000001</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -989,6 +1036,9 @@
       <c r="J16" t="n">
         <v>196875.27</v>
       </c>
+      <c r="K16" t="n">
+        <v>196710.17</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -1022,6 +1072,9 @@
       </c>
       <c r="J17" t="n">
         <v>1930844.13</v>
+      </c>
+      <c r="K17" t="n">
+        <v>1927706.98</v>
       </c>
     </row>
     <row r="18">
@@ -1055,6 +1108,9 @@
       <c r="J18" t="n">
         <v>1353960.94</v>
       </c>
+      <c r="K18" t="n">
+        <v>1352943.73</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1087,6 +1143,9 @@
       <c r="J19" t="n">
         <v>676691.05</v>
       </c>
+      <c r="K19" t="n">
+        <v>676193.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1119,6 +1178,9 @@
       <c r="J20" t="n">
         <v>57226.31</v>
       </c>
+      <c r="K20" t="n">
+        <v>57509.32</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1151,6 +1213,9 @@
       <c r="J21" t="n">
         <v>19258.99</v>
       </c>
+      <c r="K21" t="n">
+        <v>19268.35</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1183,6 +1248,9 @@
       <c r="J22" t="n">
         <v>37872.42</v>
       </c>
+      <c r="K22" t="n">
+        <v>37884.58</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1215,6 +1283,9 @@
       <c r="J23" t="n">
         <v>464774.45</v>
       </c>
+      <c r="K23" t="n">
+        <v>462559.61</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1247,6 +1318,9 @@
       <c r="J24" t="n">
         <v>684835.1899999999</v>
       </c>
+      <c r="K24" t="n">
+        <v>663278.58</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1279,6 +1353,9 @@
       <c r="J25" t="n">
         <v>639080.25</v>
       </c>
+      <c r="K25" t="n">
+        <v>638064.58</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1311,6 +1388,9 @@
       <c r="J26" t="n">
         <v>945036.96</v>
       </c>
+      <c r="K26" t="n">
+        <v>945760.61</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1345,6 +1425,9 @@
       <c r="J27" t="n">
         <v>502715.15</v>
       </c>
+      <c r="K27" t="n">
+        <v>503962.14</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1379,6 +1462,9 @@
       <c r="J28" t="n">
         <v>96059.37</v>
       </c>
+      <c r="K28" t="n">
+        <v>95856</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1413,6 +1499,9 @@
       <c r="J29" t="n">
         <v>1223321.24</v>
       </c>
+      <c r="K29" t="n">
+        <v>1001351.96</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1447,6 +1536,9 @@
       <c r="J30" t="n">
         <v>63606.52</v>
       </c>
+      <c r="K30" t="n">
+        <v>63494.74</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1481,6 +1573,9 @@
       <c r="J31" t="n">
         <v>24517.82</v>
       </c>
+      <c r="K31" t="n">
+        <v>24518.19</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1515,6 +1610,9 @@
       <c r="J32" t="n">
         <v>275526.32</v>
       </c>
+      <c r="K32" t="n">
+        <v>265227.33</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1549,6 +1647,9 @@
       <c r="J33" t="n">
         <v>469670</v>
       </c>
+      <c r="K33" t="n">
+        <v>469764.23</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1583,6 +1684,9 @@
       <c r="J34" t="n">
         <v>190497.58</v>
       </c>
+      <c r="K34" t="n">
+        <v>190219.11</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1617,6 +1721,9 @@
       <c r="J35" t="n">
         <v>25579.29</v>
       </c>
+      <c r="K35" t="n">
+        <v>25602.45</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1651,6 +1758,9 @@
       <c r="J36" t="n">
         <v>120092.97</v>
       </c>
+      <c r="K36" t="n">
+        <v>120076.63</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1685,6 +1795,9 @@
       <c r="J37" t="n">
         <v>248726.16</v>
       </c>
+      <c r="K37" t="n">
+        <v>248724.51</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1718,6 +1831,9 @@
       </c>
       <c r="J38" t="n">
         <v>96717.49000000001</v>
+      </c>
+      <c r="K38" t="n">
+        <v>96711.98</v>
       </c>
     </row>
     <row r="39">
@@ -1751,6 +1867,9 @@
       <c r="J39" t="n">
         <v>336229.01</v>
       </c>
+      <c r="K39" t="n">
+        <v>336404.04</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -1785,6 +1904,9 @@
       <c r="J40" t="n">
         <v>399206.85</v>
       </c>
+      <c r="K40" t="n">
+        <v>399447.02</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -1819,6 +1941,9 @@
       <c r="J41" t="n">
         <v>142829.63</v>
       </c>
+      <c r="K41" t="n">
+        <v>133832.41</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -1853,6 +1978,9 @@
       <c r="J42" t="n">
         <v>319942.86</v>
       </c>
+      <c r="K42" t="n">
+        <v>320495.12</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -1887,6 +2015,9 @@
       <c r="J43" t="n">
         <v>232510.93</v>
       </c>
+      <c r="K43" t="n">
+        <v>232695.5</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -1921,6 +2052,9 @@
       <c r="J44" t="n">
         <v>1059931.88</v>
       </c>
+      <c r="K44" t="n">
+        <v>1059936.66</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -1954,6 +2088,9 @@
       </c>
       <c r="J45" t="n">
         <v>2454786.01</v>
+      </c>
+      <c r="K45" t="n">
+        <v>2455935.89</v>
       </c>
     </row>
     <row r="46">
@@ -1977,6 +2114,7 @@
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -2011,6 +2149,9 @@
       <c r="J47" t="n">
         <v>157965.71</v>
       </c>
+      <c r="K47" t="n">
+        <v>156382.17</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -2045,6 +2186,9 @@
       <c r="J48" t="n">
         <v>320356.95</v>
       </c>
+      <c r="K48" t="n">
+        <v>318684.52</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -2078,6 +2222,9 @@
       </c>
       <c r="J49" t="n">
         <v>131137.68</v>
+      </c>
+      <c r="K49" t="n">
+        <v>131117.5</v>
       </c>
     </row>
     <row r="50">
@@ -2101,6 +2248,7 @@
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -2135,6 +2283,9 @@
       <c r="J51" t="n">
         <v>475290.24</v>
       </c>
+      <c r="K51" t="n">
+        <v>464058.1</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
@@ -2168,6 +2319,9 @@
       </c>
       <c r="J52" t="n">
         <v>22338641.16</v>
+      </c>
+      <c r="K52" t="n">
+        <v>21810730.72</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/ALUA.xlsx
+++ b/backend/src/excel_handler/files/ALUA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K52"/>
+  <dimension ref="A1:L52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,6 +484,11 @@
           <t>10-03-2023</t>
         </is>
       </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>17-03-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -521,6 +526,9 @@
       <c r="K2" t="n">
         <v>338230.79</v>
       </c>
+      <c r="L2" t="n">
+        <v>292417.02</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -558,6 +566,9 @@
       <c r="K3" t="n">
         <v>937850.71</v>
       </c>
+      <c r="L3" t="n">
+        <v>909061.5</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -595,6 +606,9 @@
       <c r="K4" t="n">
         <v>120517.69</v>
       </c>
+      <c r="L4" t="n">
+        <v>120585.9</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -632,6 +646,9 @@
       <c r="K5" t="n">
         <v>235782.07</v>
       </c>
+      <c r="L5" t="n">
+        <v>235707.26</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -669,6 +686,9 @@
       <c r="K6" t="n">
         <v>225380.98</v>
       </c>
+      <c r="L6" t="n">
+        <v>226153.56</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -706,6 +726,9 @@
       <c r="K7" t="n">
         <v>699870.52</v>
       </c>
+      <c r="L7" t="n">
+        <v>572824.17</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -743,6 +766,9 @@
       <c r="K8" t="n">
         <v>599069.76</v>
       </c>
+      <c r="L8" t="n">
+        <v>599094.79</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -780,6 +806,9 @@
       <c r="K9" t="n">
         <v>1080670.59</v>
       </c>
+      <c r="L9" t="n">
+        <v>1023925.12</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -817,6 +846,9 @@
       <c r="K10" t="n">
         <v>11589.02</v>
       </c>
+      <c r="L10" t="n">
+        <v>11547.38</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -854,6 +886,9 @@
       <c r="K11" t="n">
         <v>939496.76</v>
       </c>
+      <c r="L11" t="n">
+        <v>943513.28</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -891,6 +926,9 @@
       <c r="K12" t="n">
         <v>4210.63</v>
       </c>
+      <c r="L12" t="n">
+        <v>4208.64</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -928,6 +966,9 @@
       <c r="K13" t="n">
         <v>8194.98</v>
       </c>
+      <c r="L13" t="n">
+        <v>8200.540000000001</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -965,6 +1006,9 @@
       <c r="K14" t="n">
         <v>13431.48</v>
       </c>
+      <c r="L14" t="n">
+        <v>13400.71</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -1002,6 +1046,9 @@
       <c r="K15" t="n">
         <v>968114.1800000001</v>
       </c>
+      <c r="L15" t="n">
+        <v>937824.92</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1039,6 +1086,9 @@
       <c r="K16" t="n">
         <v>196710.17</v>
       </c>
+      <c r="L16" t="n">
+        <v>196861.91</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -1075,6 +1125,9 @@
       </c>
       <c r="K17" t="n">
         <v>1927706.98</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1921574.32</v>
       </c>
     </row>
     <row r="18">
@@ -1111,6 +1164,9 @@
       <c r="K18" t="n">
         <v>1352943.73</v>
       </c>
+      <c r="L18" t="n">
+        <v>1353707.45</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1146,6 +1202,9 @@
       <c r="K19" t="n">
         <v>676193.95</v>
       </c>
+      <c r="L19" t="n">
+        <v>676312.0699999999</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1181,6 +1240,9 @@
       <c r="K20" t="n">
         <v>57509.32</v>
       </c>
+      <c r="L20" t="n">
+        <v>57291.38</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1216,6 +1278,9 @@
       <c r="K21" t="n">
         <v>19268.35</v>
       </c>
+      <c r="L21" t="n">
+        <v>19247.92</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1251,6 +1316,9 @@
       <c r="K22" t="n">
         <v>37884.58</v>
       </c>
+      <c r="L22" t="n">
+        <v>37877.45</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1286,6 +1354,9 @@
       <c r="K23" t="n">
         <v>462559.61</v>
       </c>
+      <c r="L23" t="n">
+        <v>463485.91</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1321,6 +1392,9 @@
       <c r="K24" t="n">
         <v>663278.58</v>
       </c>
+      <c r="L24" t="n">
+        <v>654869.75</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1356,6 +1430,9 @@
       <c r="K25" t="n">
         <v>638064.58</v>
       </c>
+      <c r="L25" t="n">
+        <v>621581.1899999999</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1391,6 +1468,9 @@
       <c r="K26" t="n">
         <v>945760.61</v>
       </c>
+      <c r="L26" t="n">
+        <v>954333.62</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1428,6 +1508,9 @@
       <c r="K27" t="n">
         <v>503962.14</v>
       </c>
+      <c r="L27" t="n">
+        <v>527915.3100000001</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1465,6 +1548,9 @@
       <c r="K28" t="n">
         <v>95856</v>
       </c>
+      <c r="L28" t="n">
+        <v>96047.78999999999</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1502,6 +1588,9 @@
       <c r="K29" t="n">
         <v>1001351.96</v>
       </c>
+      <c r="L29" t="n">
+        <v>999025.1899999999</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1539,6 +1628,9 @@
       <c r="K30" t="n">
         <v>63494.74</v>
       </c>
+      <c r="L30" t="n">
+        <v>63637.31</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1576,6 +1668,9 @@
       <c r="K31" t="n">
         <v>24518.19</v>
       </c>
+      <c r="L31" t="n">
+        <v>24501.6</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1613,6 +1708,9 @@
       <c r="K32" t="n">
         <v>265227.33</v>
       </c>
+      <c r="L32" t="n">
+        <v>245765.65</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1650,6 +1748,9 @@
       <c r="K33" t="n">
         <v>469764.23</v>
       </c>
+      <c r="L33" t="n">
+        <v>449653.4</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1687,6 +1788,9 @@
       <c r="K34" t="n">
         <v>190219.11</v>
       </c>
+      <c r="L34" t="n">
+        <v>189066.75</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1724,6 +1828,9 @@
       <c r="K35" t="n">
         <v>25602.45</v>
       </c>
+      <c r="L35" t="n">
+        <v>25601.53</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1761,6 +1868,9 @@
       <c r="K36" t="n">
         <v>120076.63</v>
       </c>
+      <c r="L36" t="n">
+        <v>114668.4</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1798,6 +1908,9 @@
       <c r="K37" t="n">
         <v>248724.51</v>
       </c>
+      <c r="L37" t="n">
+        <v>248968.04</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1834,6 +1947,9 @@
       </c>
       <c r="K38" t="n">
         <v>96711.98</v>
+      </c>
+      <c r="L38" t="n">
+        <v>96649.74000000001</v>
       </c>
     </row>
     <row r="39">
@@ -1870,6 +1986,9 @@
       <c r="K39" t="n">
         <v>336404.04</v>
       </c>
+      <c r="L39" t="n">
+        <v>335970.18</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -1907,6 +2026,9 @@
       <c r="K40" t="n">
         <v>399447.02</v>
       </c>
+      <c r="L40" t="n">
+        <v>399601.09</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -1944,6 +2066,9 @@
       <c r="K41" t="n">
         <v>133832.41</v>
       </c>
+      <c r="L41" t="n">
+        <v>153727.66</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -1981,6 +2106,9 @@
       <c r="K42" t="n">
         <v>320495.12</v>
       </c>
+      <c r="L42" t="n">
+        <v>320546.99</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -2018,6 +2146,9 @@
       <c r="K43" t="n">
         <v>232695.5</v>
       </c>
+      <c r="L43" t="n">
+        <v>232609.22</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -2055,6 +2186,9 @@
       <c r="K44" t="n">
         <v>1059936.66</v>
       </c>
+      <c r="L44" t="n">
+        <v>1015447.94</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -2091,6 +2225,9 @@
       </c>
       <c r="K45" t="n">
         <v>2455935.89</v>
+      </c>
+      <c r="L45" t="n">
+        <v>2326184.77</v>
       </c>
     </row>
     <row r="46">
@@ -2115,6 +2252,7 @@
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -2152,6 +2290,9 @@
       <c r="K47" t="n">
         <v>156382.17</v>
       </c>
+      <c r="L47" t="n">
+        <v>155994.77</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -2189,6 +2330,9 @@
       <c r="K48" t="n">
         <v>318684.52</v>
       </c>
+      <c r="L48" t="n">
+        <v>320373.82</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -2225,6 +2369,9 @@
       </c>
       <c r="K49" t="n">
         <v>131117.5</v>
+      </c>
+      <c r="L49" t="n">
+        <v>131257.68</v>
       </c>
     </row>
     <row r="50">
@@ -2249,6 +2396,7 @@
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -2286,6 +2434,9 @@
       <c r="K51" t="n">
         <v>464058.1</v>
       </c>
+      <c r="L51" t="n">
+        <v>453804.74</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
@@ -2322,6 +2473,9 @@
       </c>
       <c r="K52" t="n">
         <v>21810730.72</v>
+      </c>
+      <c r="L52" t="n">
+        <v>21328822.59</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/ALUA.xlsx
+++ b/backend/src/excel_handler/files/ALUA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L52"/>
+  <dimension ref="A1:M52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,6 +489,11 @@
           <t>17-03-2023</t>
         </is>
       </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>23-03-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -529,6 +534,9 @@
       <c r="L2" t="n">
         <v>292417.02</v>
       </c>
+      <c r="M2" t="n">
+        <v>292590.22</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -569,6 +577,9 @@
       <c r="L3" t="n">
         <v>909061.5</v>
       </c>
+      <c r="M3" t="n">
+        <v>957849.0600000001</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -609,6 +620,9 @@
       <c r="L4" t="n">
         <v>120585.9</v>
       </c>
+      <c r="M4" t="n">
+        <v>120514.15</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -649,6 +663,9 @@
       <c r="L5" t="n">
         <v>235707.26</v>
       </c>
+      <c r="M5" t="n">
+        <v>235789.5</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -689,6 +706,9 @@
       <c r="L6" t="n">
         <v>226153.56</v>
       </c>
+      <c r="M6" t="n">
+        <v>225820.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -729,6 +749,9 @@
       <c r="L7" t="n">
         <v>572824.17</v>
       </c>
+      <c r="M7" t="n">
+        <v>571523.55</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -769,6 +792,9 @@
       <c r="L8" t="n">
         <v>599094.79</v>
       </c>
+      <c r="M8" t="n">
+        <v>598753.3100000001</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -809,6 +835,9 @@
       <c r="L9" t="n">
         <v>1023925.12</v>
       </c>
+      <c r="M9" t="n">
+        <v>1023918.6</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -849,6 +878,9 @@
       <c r="L10" t="n">
         <v>11547.38</v>
       </c>
+      <c r="M10" t="n">
+        <v>11551.84</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -889,6 +921,9 @@
       <c r="L11" t="n">
         <v>943513.28</v>
       </c>
+      <c r="M11" t="n">
+        <v>943725.76</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -929,6 +964,9 @@
       <c r="L12" t="n">
         <v>4208.64</v>
       </c>
+      <c r="M12" t="n">
+        <v>4208.5</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -969,6 +1007,9 @@
       <c r="L13" t="n">
         <v>8200.540000000001</v>
       </c>
+      <c r="M13" t="n">
+        <v>8197.09</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -1009,6 +1050,9 @@
       <c r="L14" t="n">
         <v>13400.71</v>
       </c>
+      <c r="M14" t="n">
+        <v>13447.65</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -1049,6 +1093,9 @@
       <c r="L15" t="n">
         <v>937824.92</v>
       </c>
+      <c r="M15" t="n">
+        <v>937629.91</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1089,6 +1136,9 @@
       <c r="L16" t="n">
         <v>196861.91</v>
       </c>
+      <c r="M16" t="n">
+        <v>196402.57</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -1128,6 +1178,9 @@
       </c>
       <c r="L17" t="n">
         <v>1921574.32</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1917344.49</v>
       </c>
     </row>
     <row r="18">
@@ -1167,6 +1220,9 @@
       <c r="L18" t="n">
         <v>1353707.45</v>
       </c>
+      <c r="M18" t="n">
+        <v>1255595.32</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1205,6 +1261,9 @@
       <c r="L19" t="n">
         <v>676312.0699999999</v>
       </c>
+      <c r="M19" t="n">
+        <v>676835.55</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1243,6 +1302,9 @@
       <c r="L20" t="n">
         <v>57291.38</v>
       </c>
+      <c r="M20" t="n">
+        <v>57520.08</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1281,6 +1343,9 @@
       <c r="L21" t="n">
         <v>19247.92</v>
       </c>
+      <c r="M21" t="n">
+        <v>19252.15</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1319,6 +1384,9 @@
       <c r="L22" t="n">
         <v>37877.45</v>
       </c>
+      <c r="M22" t="n">
+        <v>37888.35</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1357,6 +1425,9 @@
       <c r="L23" t="n">
         <v>463485.91</v>
       </c>
+      <c r="M23" t="n">
+        <v>464239.59</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1395,6 +1466,9 @@
       <c r="L24" t="n">
         <v>654869.75</v>
       </c>
+      <c r="M24" t="n">
+        <v>655734.75</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1433,6 +1507,9 @@
       <c r="L25" t="n">
         <v>621581.1899999999</v>
       </c>
+      <c r="M25" t="n">
+        <v>622591.0600000001</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1471,6 +1548,9 @@
       <c r="L26" t="n">
         <v>954333.62</v>
       </c>
+      <c r="M26" t="n">
+        <v>985446.1800000001</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1511,6 +1591,9 @@
       <c r="L27" t="n">
         <v>527915.3100000001</v>
       </c>
+      <c r="M27" t="n">
+        <v>578861.1899999999</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1551,6 +1634,9 @@
       <c r="L28" t="n">
         <v>96047.78999999999</v>
       </c>
+      <c r="M28" t="n">
+        <v>96034.59</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1591,6 +1677,9 @@
       <c r="L29" t="n">
         <v>999025.1899999999</v>
       </c>
+      <c r="M29" t="n">
+        <v>998021.2</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1631,6 +1720,9 @@
       <c r="L30" t="n">
         <v>63637.31</v>
       </c>
+      <c r="M30" t="n">
+        <v>63560.44</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1671,6 +1763,9 @@
       <c r="L31" t="n">
         <v>24501.6</v>
       </c>
+      <c r="M31" t="n">
+        <v>34496.13</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1711,6 +1806,9 @@
       <c r="L32" t="n">
         <v>245765.65</v>
       </c>
+      <c r="M32" t="n">
+        <v>245349.43</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1751,6 +1849,9 @@
       <c r="L33" t="n">
         <v>449653.4</v>
       </c>
+      <c r="M33" t="n">
+        <v>449394.39</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1791,6 +1892,9 @@
       <c r="L34" t="n">
         <v>189066.75</v>
       </c>
+      <c r="M34" t="n">
+        <v>166586.33</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1831,6 +1935,9 @@
       <c r="L35" t="n">
         <v>25601.53</v>
       </c>
+      <c r="M35" t="n">
+        <v>25599.87</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1871,6 +1978,9 @@
       <c r="L36" t="n">
         <v>114668.4</v>
       </c>
+      <c r="M36" t="n">
+        <v>114122.72</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1911,6 +2021,9 @@
       <c r="L37" t="n">
         <v>248968.04</v>
       </c>
+      <c r="M37" t="n">
+        <v>248823.19</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1950,6 +2063,9 @@
       </c>
       <c r="L38" t="n">
         <v>96649.74000000001</v>
+      </c>
+      <c r="M38" t="n">
+        <v>96788.38</v>
       </c>
     </row>
     <row r="39">
@@ -1989,6 +2105,9 @@
       <c r="L39" t="n">
         <v>335970.18</v>
       </c>
+      <c r="M39" t="n">
+        <v>333793.46</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -2029,6 +2148,9 @@
       <c r="L40" t="n">
         <v>399601.09</v>
       </c>
+      <c r="M40" t="n">
+        <v>399589.88</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -2069,6 +2191,9 @@
       <c r="L41" t="n">
         <v>153727.66</v>
       </c>
+      <c r="M41" t="n">
+        <v>153557.85</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -2109,6 +2234,9 @@
       <c r="L42" t="n">
         <v>320546.99</v>
       </c>
+      <c r="M42" t="n">
+        <v>320147.97</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -2149,6 +2277,9 @@
       <c r="L43" t="n">
         <v>232609.22</v>
       </c>
+      <c r="M43" t="n">
+        <v>225857.33</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -2189,6 +2320,9 @@
       <c r="L44" t="n">
         <v>1015447.94</v>
       </c>
+      <c r="M44" t="n">
+        <v>1015403.06</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -2228,6 +2362,9 @@
       </c>
       <c r="L45" t="n">
         <v>2326184.77</v>
+      </c>
+      <c r="M45" t="n">
+        <v>2069764.94</v>
       </c>
     </row>
     <row r="46">
@@ -2253,6 +2390,7 @@
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -2293,6 +2431,9 @@
       <c r="L47" t="n">
         <v>155994.77</v>
       </c>
+      <c r="M47" t="n">
+        <v>157044.09</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -2333,6 +2474,9 @@
       <c r="L48" t="n">
         <v>320373.82</v>
       </c>
+      <c r="M48" t="n">
+        <v>319291.99</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -2372,6 +2516,9 @@
       </c>
       <c r="L49" t="n">
         <v>131257.68</v>
+      </c>
+      <c r="M49" t="n">
+        <v>131117.95</v>
       </c>
     </row>
     <row r="50">
@@ -2397,6 +2544,7 @@
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -2437,6 +2585,9 @@
       <c r="L51" t="n">
         <v>453804.74</v>
       </c>
+      <c r="M51" t="n">
+        <v>448459.08</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
@@ -2476,6 +2627,9 @@
       </c>
       <c r="L52" t="n">
         <v>21328822.59</v>
+      </c>
+      <c r="M52" t="n">
+        <v>21077576.56</v>
       </c>
     </row>
   </sheetData>
